--- a/doc/外部設計書/外部設計書_F2_fireworks_ドロワーメニュー.xlsx
+++ b/doc/外部設計書/外部設計書_F2_fireworks_ドロワーメニュー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E453A639-3D4F-4BDA-B17B-72BDB9AF3434}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224EB2EE-750E-472E-AEAD-EFA1FED7BAE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -195,6 +195,82 @@
     <t>memoly</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>drawer</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>マップ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>リスト</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>称号</t>
+    <rPh sb="0" eb="2">
+      <t>ショウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ストーリー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>使い方</t>
+    <rPh sb="0" eb="1">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>submit</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>botton</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>menu_close</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Jqueryでnav_openのつけ外し処理を使う</t>
+    <rPh sb="23" eb="24">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>menu_map</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>menu_list</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>menu_title</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>menu_story</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>menu_usage</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -203,7 +279,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -244,6 +320,19 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF202124"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -568,7 +657,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -692,6 +781,16 @@
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1585,6 +1684,423 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>8246</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>8246</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF31F7CE-489D-46F7-87FB-25E3659957F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="775194" y="7966363"/>
+          <a:ext cx="6646883" cy="3603832"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　ドロワーメニュー」をクリック</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>２回目のクリックなのでドロワーメニューを閉じる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　マップ」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>をクリック</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>マップ画面に遷移する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　リスト」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>をクリック</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>リスト画面に遷移する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　称号」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>をクリック</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>称号画面に遷移する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　ストーリー」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>をクリック</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ストーリー画面に遷移する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>6</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　使い方」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>をクリック</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>使い方画面に遷移する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1911,8 +2427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB22" sqref="AB22"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L85" sqref="L85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5115,22 +5631,32 @@
       <c r="AM78" s="18"/>
       <c r="AN78" s="7"/>
     </row>
-    <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="12"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="14"/>
+      <c r="C79" s="13">
+        <v>1</v>
+      </c>
+      <c r="D79" s="47" t="s">
+        <v>32</v>
+      </c>
       <c r="E79" s="15"/>
       <c r="F79" s="15"/>
       <c r="G79" s="13"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="16"/>
-      <c r="J79" s="15"/>
-      <c r="K79" s="17"/>
-      <c r="L79" s="14"/>
+      <c r="H79" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I79" s="44"/>
+      <c r="J79" s="45"/>
+      <c r="K79" s="46"/>
+      <c r="L79" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="M79" s="15"/>
       <c r="N79" s="17"/>
-      <c r="O79" s="14"/>
+      <c r="O79" s="14" t="s">
+        <v>24</v>
+      </c>
       <c r="P79" s="15"/>
       <c r="Q79" s="15"/>
       <c r="R79" s="17"/>
@@ -5145,7 +5671,9 @@
       <c r="AA79" s="14"/>
       <c r="AB79" s="15"/>
       <c r="AC79" s="17"/>
-      <c r="AD79" s="14"/>
+      <c r="AD79" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="AE79" s="15"/>
       <c r="AF79" s="15"/>
       <c r="AG79" s="15"/>
@@ -5157,22 +5685,32 @@
       <c r="AM79" s="18"/>
       <c r="AN79" s="7"/>
     </row>
-    <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="12"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="14"/>
+      <c r="C80" s="13">
+        <v>2</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
       <c r="G80" s="13"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="16"/>
-      <c r="J80" s="15"/>
-      <c r="K80" s="17"/>
-      <c r="L80" s="14"/>
+      <c r="H80" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I80" s="44"/>
+      <c r="J80" s="45"/>
+      <c r="K80" s="46"/>
+      <c r="L80" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="M80" s="15"/>
       <c r="N80" s="17"/>
-      <c r="O80" s="14"/>
+      <c r="O80" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="P80" s="15"/>
       <c r="Q80" s="15"/>
       <c r="R80" s="17"/>
@@ -5199,22 +5737,32 @@
       <c r="AM80" s="18"/>
       <c r="AN80" s="7"/>
     </row>
-    <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="12"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="14"/>
+      <c r="C81" s="13">
+        <v>3</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
       <c r="G81" s="13"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="16"/>
-      <c r="J81" s="15"/>
-      <c r="K81" s="17"/>
-      <c r="L81" s="14"/>
+      <c r="H81" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I81" s="44"/>
+      <c r="J81" s="45"/>
+      <c r="K81" s="46"/>
+      <c r="L81" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="M81" s="15"/>
       <c r="N81" s="17"/>
-      <c r="O81" s="14"/>
+      <c r="O81" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="P81" s="15"/>
       <c r="Q81" s="15"/>
       <c r="R81" s="17"/>
@@ -5241,22 +5789,32 @@
       <c r="AM81" s="18"/>
       <c r="AN81" s="7"/>
     </row>
-    <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="12"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="14"/>
+      <c r="C82" s="13">
+        <v>4</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
       <c r="G82" s="13"/>
-      <c r="H82" s="14"/>
-      <c r="I82" s="16"/>
-      <c r="J82" s="15"/>
-      <c r="K82" s="17"/>
-      <c r="L82" s="14"/>
+      <c r="H82" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I82" s="44"/>
+      <c r="J82" s="45"/>
+      <c r="K82" s="46"/>
+      <c r="L82" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="M82" s="15"/>
       <c r="N82" s="17"/>
-      <c r="O82" s="14"/>
+      <c r="O82" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="P82" s="15"/>
       <c r="Q82" s="15"/>
       <c r="R82" s="17"/>
@@ -5283,22 +5841,32 @@
       <c r="AM82" s="18"/>
       <c r="AN82" s="7"/>
     </row>
-    <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="12"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="14"/>
+      <c r="C83" s="13">
+        <v>5</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
       <c r="G83" s="13"/>
-      <c r="H83" s="14"/>
-      <c r="I83" s="16"/>
-      <c r="J83" s="15"/>
-      <c r="K83" s="17"/>
-      <c r="L83" s="14"/>
+      <c r="H83" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I83" s="44"/>
+      <c r="J83" s="45"/>
+      <c r="K83" s="46"/>
+      <c r="L83" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="M83" s="15"/>
       <c r="N83" s="17"/>
-      <c r="O83" s="14"/>
+      <c r="O83" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="P83" s="15"/>
       <c r="Q83" s="15"/>
       <c r="R83" s="17"/>
@@ -5325,22 +5893,32 @@
       <c r="AM83" s="18"/>
       <c r="AN83" s="7"/>
     </row>
-    <row r="84" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="12"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="14"/>
+      <c r="C84" s="13">
+        <v>6</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>38</v>
+      </c>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
       <c r="G84" s="13"/>
-      <c r="H84" s="14"/>
-      <c r="I84" s="16"/>
-      <c r="J84" s="15"/>
-      <c r="K84" s="17"/>
-      <c r="L84" s="14"/>
+      <c r="H84" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I84" s="44"/>
+      <c r="J84" s="45"/>
+      <c r="K84" s="46"/>
+      <c r="L84" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="M84" s="15"/>
       <c r="N84" s="17"/>
-      <c r="O84" s="14"/>
+      <c r="O84" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="P84" s="15"/>
       <c r="Q84" s="15"/>
       <c r="R84" s="17"/>

--- a/doc/外部設計書/外部設計書_F2_fireworks_ドロワーメニュー.xlsx
+++ b/doc/外部設計書/外部設計書_F2_fireworks_ドロワーメニュー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224EB2EE-750E-472E-AEAD-EFA1FED7BAE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC82F11F-CBD3-4A00-9E9C-EA9CF7D197F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -229,14 +229,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>submit</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>botton</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>menu_close</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -269,6 +261,17 @@
   </si>
   <si>
     <t>a</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>button</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>辻</t>
+    <rPh sb="0" eb="1">
+      <t>ツジ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -707,6 +710,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -781,16 +794,6 @@
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1117,8 +1120,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2389502" y="2024535"/>
-          <a:ext cx="237785" cy="111474"/>
+          <a:off x="2389502" y="2052144"/>
+          <a:ext cx="237785" cy="114235"/>
           <a:chOff x="6582064" y="8647545"/>
           <a:chExt cx="415636" cy="374074"/>
         </a:xfrm>
@@ -2427,8 +2430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L85" sqref="L85"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2437,158 +2440,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="28" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28" t="s">
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28" t="s">
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28" t="s">
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="43" t="s">
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="35" t="s">
-        <v>22</v>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="39" t="s">
+        <v>39</v>
       </c>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="36"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="40"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="37" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37" t="s">
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37" t="s">
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="38">
+      <c r="X2" s="41"/>
+      <c r="Y2" s="42">
         <v>45083</v>
       </c>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="39" t="s">
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="39"/>
-      <c r="AH2" s="40">
-        <v>45083</v>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="44">
+        <v>45084</v>
       </c>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="42"/>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45"/>
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="46"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="29" t="s">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="30"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="33"/>
-      <c r="AG3" s="33"/>
-      <c r="AH3" s="33"/>
-      <c r="AI3" s="33"/>
-      <c r="AJ3" s="33"/>
-      <c r="AK3" s="33"/>
-      <c r="AL3" s="33"/>
-      <c r="AM3" s="33"/>
-      <c r="AN3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="37"/>
+      <c r="AK3" s="37"/>
+      <c r="AL3" s="37"/>
+      <c r="AM3" s="37"/>
+      <c r="AN3" s="38"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -5637,8 +5640,8 @@
       <c r="C79" s="13">
         <v>1</v>
       </c>
-      <c r="D79" s="47" t="s">
-        <v>32</v>
+      <c r="D79" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="E79" s="15"/>
       <c r="F79" s="15"/>
@@ -5646,11 +5649,11 @@
       <c r="H79" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I79" s="44"/>
-      <c r="J79" s="45"/>
-      <c r="K79" s="46"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="20"/>
+      <c r="K79" s="21"/>
       <c r="L79" s="14" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="M79" s="15"/>
       <c r="N79" s="17"/>
@@ -5672,7 +5675,7 @@
       <c r="AB79" s="15"/>
       <c r="AC79" s="17"/>
       <c r="AD79" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AE79" s="15"/>
       <c r="AF79" s="15"/>
@@ -5692,7 +5695,7 @@
         <v>2</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
@@ -5700,17 +5703,15 @@
       <c r="H80" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="I80" s="44"/>
-      <c r="J80" s="45"/>
-      <c r="K80" s="46"/>
+      <c r="I80" s="19"/>
+      <c r="J80" s="20"/>
+      <c r="K80" s="21"/>
       <c r="L80" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M80" s="15"/>
       <c r="N80" s="17"/>
-      <c r="O80" s="14" t="s">
-        <v>30</v>
-      </c>
+      <c r="O80" s="14"/>
       <c r="P80" s="15"/>
       <c r="Q80" s="15"/>
       <c r="R80" s="17"/>
@@ -5744,7 +5745,7 @@
         <v>3</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
@@ -5752,17 +5753,15 @@
       <c r="H81" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I81" s="44"/>
-      <c r="J81" s="45"/>
-      <c r="K81" s="46"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="20"/>
+      <c r="K81" s="21"/>
       <c r="L81" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M81" s="15"/>
       <c r="N81" s="17"/>
-      <c r="O81" s="14" t="s">
-        <v>30</v>
-      </c>
+      <c r="O81" s="14"/>
       <c r="P81" s="15"/>
       <c r="Q81" s="15"/>
       <c r="R81" s="17"/>
@@ -5796,7 +5795,7 @@
         <v>4</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
@@ -5804,17 +5803,15 @@
       <c r="H82" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I82" s="44"/>
-      <c r="J82" s="45"/>
-      <c r="K82" s="46"/>
+      <c r="I82" s="19"/>
+      <c r="J82" s="20"/>
+      <c r="K82" s="21"/>
       <c r="L82" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M82" s="15"/>
       <c r="N82" s="17"/>
-      <c r="O82" s="14" t="s">
-        <v>30</v>
-      </c>
+      <c r="O82" s="14"/>
       <c r="P82" s="15"/>
       <c r="Q82" s="15"/>
       <c r="R82" s="17"/>
@@ -5848,7 +5845,7 @@
         <v>5</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
@@ -5856,17 +5853,15 @@
       <c r="H83" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="I83" s="44"/>
-      <c r="J83" s="45"/>
-      <c r="K83" s="46"/>
+      <c r="I83" s="19"/>
+      <c r="J83" s="20"/>
+      <c r="K83" s="21"/>
       <c r="L83" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M83" s="15"/>
       <c r="N83" s="17"/>
-      <c r="O83" s="14" t="s">
-        <v>30</v>
-      </c>
+      <c r="O83" s="14"/>
       <c r="P83" s="15"/>
       <c r="Q83" s="15"/>
       <c r="R83" s="17"/>
@@ -5900,7 +5895,7 @@
         <v>6</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
@@ -5908,17 +5903,15 @@
       <c r="H84" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="I84" s="44"/>
-      <c r="J84" s="45"/>
-      <c r="K84" s="46"/>
+      <c r="I84" s="19"/>
+      <c r="J84" s="20"/>
+      <c r="K84" s="21"/>
       <c r="L84" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M84" s="15"/>
       <c r="N84" s="17"/>
-      <c r="O84" s="14" t="s">
-        <v>30</v>
-      </c>
+      <c r="O84" s="14"/>
       <c r="P84" s="15"/>
       <c r="Q84" s="15"/>
       <c r="R84" s="17"/>

--- a/doc/外部設計書/外部設計書_F2_fireworks_ドロワーメニュー.xlsx
+++ b/doc/外部設計書/外部設計書_F2_fireworks_ドロワーメニュー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC82F11F-CBD3-4A00-9E9C-EA9CF7D197F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77615BDA-0CF9-4F5A-9A4A-8C7DAD143908}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -282,7 +282,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -336,6 +336,20 @@
     <font>
       <sz val="8"/>
       <color rgb="FF202124"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -660,7 +674,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -751,15 +765,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -780,9 +785,6 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -792,9 +794,55 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1120,8 +1168,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2389502" y="2052144"/>
-          <a:ext cx="237785" cy="114235"/>
+          <a:off x="2389502" y="2082262"/>
+          <a:ext cx="237785" cy="117247"/>
           <a:chOff x="6582064" y="8647545"/>
           <a:chExt cx="415636" cy="374074"/>
         </a:xfrm>
@@ -1689,16 +1737,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>8246</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>-1</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19289</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>5521</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>8246</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>19289</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>5522</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1713,21 +1761,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="775194" y="7966363"/>
-          <a:ext cx="6646883" cy="3603832"/>
+          <a:off x="527289" y="7929217"/>
+          <a:ext cx="6604000" cy="3671957"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1749,29 +1791,29 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1"/>
             <a:t>「</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1"/>
             <a:t>1</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1"/>
             <a:t>　ドロワーメニュー」をクリック</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
             <a:t>	</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
             <a:t>２回目のクリックなのでドロワーメニューを閉じる</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -1792,19 +1834,19 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1"/>
             <a:t>「</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1"/>
             <a:t>2</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1"/>
             <a:t>　マップ」</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="800" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1815,7 +1857,7 @@
             </a:rPr>
             <a:t>をクリック</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -1844,7 +1886,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1856,7 +1898,7 @@
             <a:t>	</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1867,7 +1909,7 @@
             </a:rPr>
             <a:t>マップ画面に遷移する</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -1888,19 +1930,19 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1"/>
             <a:t>「</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1"/>
             <a:t>3</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1"/>
             <a:t>　リスト」</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="800" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1911,20 +1953,20 @@
             </a:rPr>
             <a:t>をクリック</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="800" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
             <a:t>	</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
             <a:t>リスト画面に遷移する</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -1945,19 +1987,19 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1"/>
             <a:t>「</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1"/>
             <a:t>4</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1"/>
             <a:t>　称号」</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="800" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1968,20 +2010,20 @@
             </a:rPr>
             <a:t>をクリック</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="800" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
             <a:t>	</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
             <a:t>称号画面に遷移する</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -2002,19 +2044,19 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1"/>
             <a:t>「</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1"/>
             <a:t>5</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1"/>
             <a:t>　ストーリー」</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="800" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2025,20 +2067,20 @@
             </a:rPr>
             <a:t>をクリック</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="800" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
             <a:t>	</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
             <a:t>ストーリー画面に遷移する</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -2059,19 +2101,19 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1"/>
             <a:t>「</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1"/>
             <a:t>6</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1"/>
             <a:t>　使い方」</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="800" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2082,23 +2124,23 @@
             </a:rPr>
             <a:t>をクリック</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="800" b="1">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
             <a:t>	</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
             <a:t>使い方画面に遷移する</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
         <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2428,10 +2470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN109"/>
+  <dimension ref="A1:AN113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O88" sqref="O88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2452,11 +2494,11 @@
       <c r="H1" s="24"/>
       <c r="I1" s="24"/>
       <c r="J1" s="25"/>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
       <c r="N1" s="32" t="s">
         <v>21</v>
       </c>
@@ -2468,10 +2510,10 @@
       <c r="T1" s="32"/>
       <c r="U1" s="32"/>
       <c r="V1" s="32"/>
-      <c r="W1" s="32" t="s">
+      <c r="W1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="32"/>
+      <c r="X1" s="43"/>
       <c r="Y1" s="32" t="s">
         <v>22</v>
       </c>
@@ -2481,19 +2523,19 @@
       <c r="AC1" s="32"/>
       <c r="AD1" s="32"/>
       <c r="AE1" s="32"/>
-      <c r="AF1" s="47" t="s">
+      <c r="AF1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="39" t="s">
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="40"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="37"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="26"/>
@@ -2506,48 +2548,48 @@
       <c r="H2" s="27"/>
       <c r="I2" s="27"/>
       <c r="J2" s="28"/>
-      <c r="K2" s="41" t="s">
+      <c r="K2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41" t="s">
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41" t="s">
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="42">
+      <c r="X2" s="44"/>
+      <c r="Y2" s="39">
         <v>45083</v>
       </c>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="43" t="s">
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="44">
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="40">
         <v>45084</v>
       </c>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="45"/>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="45"/>
-      <c r="AN2" s="46"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="42"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="29"/>
@@ -2560,38 +2602,38 @@
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
       <c r="J3" s="31"/>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="34"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="37"/>
-      <c r="AA3" s="37"/>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="37"/>
-      <c r="AE3" s="37"/>
-      <c r="AF3" s="37"/>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="37"/>
-      <c r="AJ3" s="37"/>
-      <c r="AK3" s="37"/>
-      <c r="AL3" s="37"/>
-      <c r="AM3" s="37"/>
-      <c r="AN3" s="38"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="34"/>
+      <c r="AJ3" s="34"/>
+      <c r="AK3" s="34"/>
+      <c r="AL3" s="34"/>
+      <c r="AM3" s="34"/>
+      <c r="AN3" s="35"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -2640,7 +2682,7 @@
     </row>
     <row r="6" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="50" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="4"/>
@@ -4064,7 +4106,7 @@
     </row>
     <row r="41" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6"/>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="50" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="4"/>
@@ -5488,7 +5530,7 @@
     </row>
     <row r="76" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="6"/>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="50" t="s">
         <v>10</v>
       </c>
       <c r="C76" s="4"/>
@@ -5890,1103 +5932,1271 @@
     </row>
     <row r="84" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="13">
+      <c r="B84" s="3"/>
+      <c r="C84" s="51">
         <v>6</v>
       </c>
-      <c r="D84" s="14" t="s">
+      <c r="D84" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="13"/>
-      <c r="H84" s="14" t="s">
+      <c r="E84" s="53"/>
+      <c r="F84" s="53"/>
+      <c r="G84" s="51"/>
+      <c r="H84" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="I84" s="19"/>
-      <c r="J84" s="20"/>
-      <c r="K84" s="21"/>
-      <c r="L84" s="14" t="s">
+      <c r="I84" s="54"/>
+      <c r="J84" s="55"/>
+      <c r="K84" s="56"/>
+      <c r="L84" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="M84" s="15"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="14"/>
-      <c r="P84" s="15"/>
-      <c r="Q84" s="15"/>
-      <c r="R84" s="17"/>
-      <c r="S84" s="14"/>
-      <c r="T84" s="17"/>
-      <c r="U84" s="14"/>
-      <c r="V84" s="17"/>
-      <c r="W84" s="14"/>
-      <c r="X84" s="15"/>
-      <c r="Y84" s="15"/>
-      <c r="Z84" s="17"/>
-      <c r="AA84" s="14"/>
-      <c r="AB84" s="15"/>
-      <c r="AC84" s="17"/>
-      <c r="AD84" s="14"/>
-      <c r="AE84" s="15"/>
-      <c r="AF84" s="15"/>
-      <c r="AG84" s="15"/>
-      <c r="AH84" s="15"/>
-      <c r="AI84" s="15"/>
-      <c r="AJ84" s="15"/>
-      <c r="AK84" s="15"/>
-      <c r="AL84" s="15"/>
-      <c r="AM84" s="18"/>
+      <c r="M84" s="53"/>
+      <c r="N84" s="57"/>
+      <c r="O84" s="52"/>
+      <c r="P84" s="53"/>
+      <c r="Q84" s="53"/>
+      <c r="R84" s="57"/>
+      <c r="S84" s="52"/>
+      <c r="T84" s="57"/>
+      <c r="U84" s="52"/>
+      <c r="V84" s="57"/>
+      <c r="W84" s="52"/>
+      <c r="X84" s="53"/>
+      <c r="Y84" s="53"/>
+      <c r="Z84" s="57"/>
+      <c r="AA84" s="52"/>
+      <c r="AB84" s="53"/>
+      <c r="AC84" s="57"/>
+      <c r="AD84" s="52"/>
+      <c r="AE84" s="53"/>
+      <c r="AF84" s="53"/>
+      <c r="AG84" s="53"/>
+      <c r="AH84" s="53"/>
+      <c r="AI84" s="53"/>
+      <c r="AJ84" s="53"/>
+      <c r="AK84" s="53"/>
+      <c r="AL84" s="53"/>
+      <c r="AM84" s="5"/>
       <c r="AN84" s="7"/>
     </row>
     <row r="85" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="6"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="13"/>
-      <c r="H85" s="14"/>
-      <c r="I85" s="16"/>
-      <c r="J85" s="15"/>
-      <c r="K85" s="17"/>
-      <c r="L85" s="14"/>
-      <c r="M85" s="15"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="14"/>
-      <c r="P85" s="15"/>
-      <c r="Q85" s="15"/>
-      <c r="R85" s="17"/>
-      <c r="S85" s="14"/>
-      <c r="T85" s="17"/>
-      <c r="U85" s="14"/>
-      <c r="V85" s="17"/>
-      <c r="W85" s="14"/>
-      <c r="X85" s="15"/>
-      <c r="Y85" s="15"/>
-      <c r="Z85" s="17"/>
-      <c r="AA85" s="14"/>
-      <c r="AB85" s="15"/>
-      <c r="AC85" s="17"/>
-      <c r="AD85" s="14"/>
-      <c r="AE85" s="15"/>
-      <c r="AF85" s="15"/>
-      <c r="AG85" s="15"/>
-      <c r="AH85" s="15"/>
-      <c r="AI85" s="15"/>
-      <c r="AJ85" s="15"/>
-      <c r="AK85" s="15"/>
-      <c r="AL85" s="15"/>
-      <c r="AM85" s="18"/>
-      <c r="AN85" s="7"/>
+      <c r="A85" s="58"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="61"/>
+      <c r="D85" s="53"/>
+      <c r="E85" s="53"/>
+      <c r="F85" s="53"/>
+      <c r="G85" s="61"/>
+      <c r="H85" s="53"/>
+      <c r="I85" s="61"/>
+      <c r="J85" s="53"/>
+      <c r="K85" s="53"/>
+      <c r="L85" s="53"/>
+      <c r="M85" s="53"/>
+      <c r="N85" s="53"/>
+      <c r="O85" s="53"/>
+      <c r="P85" s="53"/>
+      <c r="Q85" s="53"/>
+      <c r="R85" s="53"/>
+      <c r="S85" s="53"/>
+      <c r="T85" s="53"/>
+      <c r="U85" s="53"/>
+      <c r="V85" s="53"/>
+      <c r="W85" s="53"/>
+      <c r="X85" s="53"/>
+      <c r="Y85" s="53"/>
+      <c r="Z85" s="53"/>
+      <c r="AA85" s="53"/>
+      <c r="AB85" s="53"/>
+      <c r="AC85" s="53"/>
+      <c r="AD85" s="53"/>
+      <c r="AE85" s="53"/>
+      <c r="AF85" s="53"/>
+      <c r="AG85" s="53"/>
+      <c r="AH85" s="53"/>
+      <c r="AI85" s="53"/>
+      <c r="AJ85" s="53"/>
+      <c r="AK85" s="53"/>
+      <c r="AL85" s="53"/>
+      <c r="AM85" s="4"/>
+      <c r="AN85" s="11"/>
     </row>
     <row r="86" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="6"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="13"/>
-      <c r="H86" s="14"/>
-      <c r="I86" s="16"/>
-      <c r="J86" s="15"/>
-      <c r="K86" s="17"/>
-      <c r="L86" s="14"/>
-      <c r="M86" s="15"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="14"/>
-      <c r="P86" s="15"/>
-      <c r="Q86" s="15"/>
-      <c r="R86" s="17"/>
-      <c r="S86" s="14"/>
-      <c r="T86" s="17"/>
-      <c r="U86" s="14"/>
-      <c r="V86" s="17"/>
-      <c r="W86" s="14"/>
-      <c r="X86" s="15"/>
-      <c r="Y86" s="15"/>
-      <c r="Z86" s="17"/>
-      <c r="AA86" s="14"/>
-      <c r="AB86" s="15"/>
-      <c r="AC86" s="17"/>
-      <c r="AD86" s="14"/>
-      <c r="AE86" s="15"/>
-      <c r="AF86" s="15"/>
-      <c r="AG86" s="15"/>
-      <c r="AH86" s="15"/>
-      <c r="AI86" s="15"/>
-      <c r="AJ86" s="15"/>
-      <c r="AK86" s="15"/>
-      <c r="AL86" s="15"/>
-      <c r="AM86" s="18"/>
-      <c r="AN86" s="7"/>
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="61"/>
+      <c r="D86" s="53"/>
+      <c r="E86" s="53"/>
+      <c r="F86" s="53"/>
+      <c r="G86" s="61"/>
+      <c r="H86" s="53"/>
+      <c r="I86" s="61"/>
+      <c r="J86" s="53"/>
+      <c r="K86" s="53"/>
+      <c r="L86" s="53"/>
+      <c r="M86" s="53"/>
+      <c r="N86" s="53"/>
+      <c r="O86" s="53"/>
+      <c r="P86" s="53"/>
+      <c r="Q86" s="53"/>
+      <c r="R86" s="53"/>
+      <c r="S86" s="53"/>
+      <c r="T86" s="53"/>
+      <c r="U86" s="53"/>
+      <c r="V86" s="53"/>
+      <c r="W86" s="53"/>
+      <c r="X86" s="53"/>
+      <c r="Y86" s="53"/>
+      <c r="Z86" s="53"/>
+      <c r="AA86" s="53"/>
+      <c r="AB86" s="53"/>
+      <c r="AC86" s="53"/>
+      <c r="AD86" s="53"/>
+      <c r="AE86" s="53"/>
+      <c r="AF86" s="53"/>
+      <c r="AG86" s="53"/>
+      <c r="AH86" s="53"/>
+      <c r="AI86" s="53"/>
+      <c r="AJ86" s="53"/>
+      <c r="AK86" s="53"/>
+      <c r="AL86" s="53"/>
+      <c r="AM86" s="4"/>
+      <c r="AN86" s="4"/>
     </row>
     <row r="87" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="6"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="15"/>
-      <c r="F87" s="15"/>
-      <c r="G87" s="13"/>
-      <c r="H87" s="14"/>
-      <c r="I87" s="16"/>
-      <c r="J87" s="15"/>
-      <c r="K87" s="17"/>
-      <c r="L87" s="14"/>
-      <c r="M87" s="15"/>
-      <c r="N87" s="17"/>
-      <c r="O87" s="14"/>
-      <c r="P87" s="15"/>
-      <c r="Q87" s="15"/>
-      <c r="R87" s="17"/>
-      <c r="S87" s="14"/>
-      <c r="T87" s="17"/>
-      <c r="U87" s="14"/>
-      <c r="V87" s="17"/>
-      <c r="W87" s="14"/>
-      <c r="X87" s="15"/>
-      <c r="Y87" s="15"/>
-      <c r="Z87" s="17"/>
-      <c r="AA87" s="14"/>
-      <c r="AB87" s="15"/>
-      <c r="AC87" s="17"/>
-      <c r="AD87" s="14"/>
-      <c r="AE87" s="15"/>
-      <c r="AF87" s="15"/>
-      <c r="AG87" s="15"/>
-      <c r="AH87" s="15"/>
-      <c r="AI87" s="15"/>
-      <c r="AJ87" s="15"/>
-      <c r="AK87" s="15"/>
-      <c r="AL87" s="15"/>
-      <c r="AM87" s="18"/>
-      <c r="AN87" s="7"/>
+      <c r="A87" s="58"/>
+      <c r="B87" s="58"/>
+      <c r="C87" s="59"/>
+      <c r="D87" s="60"/>
+      <c r="E87" s="60"/>
+      <c r="F87" s="60"/>
+      <c r="G87" s="59"/>
+      <c r="H87" s="60"/>
+      <c r="I87" s="59"/>
+      <c r="J87" s="60"/>
+      <c r="K87" s="60"/>
+      <c r="L87" s="60"/>
+      <c r="M87" s="60"/>
+      <c r="N87" s="60"/>
+      <c r="O87" s="60"/>
+      <c r="P87" s="60"/>
+      <c r="Q87" s="60"/>
+      <c r="R87" s="60"/>
+      <c r="S87" s="60"/>
+      <c r="T87" s="60"/>
+      <c r="U87" s="60"/>
+      <c r="V87" s="60"/>
+      <c r="W87" s="60"/>
+      <c r="X87" s="60"/>
+      <c r="Y87" s="60"/>
+      <c r="Z87" s="60"/>
+      <c r="AA87" s="60"/>
+      <c r="AB87" s="60"/>
+      <c r="AC87" s="60"/>
+      <c r="AD87" s="60"/>
+      <c r="AE87" s="60"/>
+      <c r="AF87" s="60"/>
+      <c r="AG87" s="60"/>
+      <c r="AH87" s="60"/>
+      <c r="AI87" s="60"/>
+      <c r="AJ87" s="60"/>
+      <c r="AK87" s="60"/>
+      <c r="AL87" s="60"/>
+      <c r="AM87" s="58"/>
+      <c r="AN87" s="58"/>
     </row>
     <row r="88" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="6"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="13"/>
-      <c r="H88" s="14"/>
-      <c r="I88" s="16"/>
-      <c r="J88" s="15"/>
-      <c r="K88" s="17"/>
-      <c r="L88" s="14"/>
-      <c r="M88" s="15"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="14"/>
-      <c r="P88" s="15"/>
-      <c r="Q88" s="15"/>
-      <c r="R88" s="17"/>
-      <c r="S88" s="14"/>
-      <c r="T88" s="17"/>
-      <c r="U88" s="14"/>
-      <c r="V88" s="17"/>
-      <c r="W88" s="14"/>
-      <c r="X88" s="15"/>
-      <c r="Y88" s="15"/>
-      <c r="Z88" s="17"/>
-      <c r="AA88" s="14"/>
-      <c r="AB88" s="15"/>
-      <c r="AC88" s="17"/>
-      <c r="AD88" s="14"/>
-      <c r="AE88" s="15"/>
-      <c r="AF88" s="15"/>
-      <c r="AG88" s="15"/>
-      <c r="AH88" s="15"/>
-      <c r="AI88" s="15"/>
-      <c r="AJ88" s="15"/>
-      <c r="AK88" s="15"/>
-      <c r="AL88" s="15"/>
-      <c r="AM88" s="18"/>
-      <c r="AN88" s="7"/>
+      <c r="A88" s="58"/>
+      <c r="B88" s="58"/>
+      <c r="C88" s="59"/>
+      <c r="D88" s="60"/>
+      <c r="E88" s="60"/>
+      <c r="F88" s="60"/>
+      <c r="G88" s="59"/>
+      <c r="H88" s="60"/>
+      <c r="I88" s="59"/>
+      <c r="J88" s="60"/>
+      <c r="K88" s="60"/>
+      <c r="L88" s="60"/>
+      <c r="M88" s="60"/>
+      <c r="N88" s="60"/>
+      <c r="O88" s="60"/>
+      <c r="P88" s="60"/>
+      <c r="Q88" s="60"/>
+      <c r="R88" s="60"/>
+      <c r="S88" s="60"/>
+      <c r="T88" s="60"/>
+      <c r="U88" s="60"/>
+      <c r="V88" s="60"/>
+      <c r="W88" s="60"/>
+      <c r="X88" s="60"/>
+      <c r="Y88" s="60"/>
+      <c r="Z88" s="60"/>
+      <c r="AA88" s="60"/>
+      <c r="AB88" s="60"/>
+      <c r="AC88" s="60"/>
+      <c r="AD88" s="60"/>
+      <c r="AE88" s="60"/>
+      <c r="AF88" s="60"/>
+      <c r="AG88" s="60"/>
+      <c r="AH88" s="60"/>
+      <c r="AI88" s="60"/>
+      <c r="AJ88" s="60"/>
+      <c r="AK88" s="60"/>
+      <c r="AL88" s="60"/>
+      <c r="AM88" s="58"/>
+      <c r="AN88" s="58"/>
     </row>
     <row r="89" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="6"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="15"/>
-      <c r="F89" s="15"/>
-      <c r="G89" s="13"/>
-      <c r="H89" s="14"/>
-      <c r="I89" s="16"/>
-      <c r="J89" s="15"/>
-      <c r="K89" s="17"/>
-      <c r="L89" s="14"/>
-      <c r="M89" s="15"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="14"/>
-      <c r="P89" s="15"/>
-      <c r="Q89" s="15"/>
-      <c r="R89" s="17"/>
-      <c r="S89" s="14"/>
-      <c r="T89" s="17"/>
-      <c r="U89" s="14"/>
-      <c r="V89" s="17"/>
-      <c r="W89" s="14"/>
-      <c r="X89" s="15"/>
-      <c r="Y89" s="15"/>
-      <c r="Z89" s="17"/>
-      <c r="AA89" s="14"/>
-      <c r="AB89" s="15"/>
-      <c r="AC89" s="17"/>
-      <c r="AD89" s="14"/>
-      <c r="AE89" s="15"/>
-      <c r="AF89" s="15"/>
-      <c r="AG89" s="15"/>
-      <c r="AH89" s="15"/>
-      <c r="AI89" s="15"/>
-      <c r="AJ89" s="15"/>
-      <c r="AK89" s="15"/>
-      <c r="AL89" s="15"/>
-      <c r="AM89" s="18"/>
-      <c r="AN89" s="7"/>
+      <c r="A89" s="58"/>
+      <c r="B89" s="58"/>
+      <c r="C89" s="59"/>
+      <c r="D89" s="60"/>
+      <c r="E89" s="60"/>
+      <c r="F89" s="60"/>
+      <c r="G89" s="59"/>
+      <c r="H89" s="60"/>
+      <c r="I89" s="59"/>
+      <c r="J89" s="60"/>
+      <c r="K89" s="60"/>
+      <c r="L89" s="60"/>
+      <c r="M89" s="60"/>
+      <c r="N89" s="60"/>
+      <c r="O89" s="60"/>
+      <c r="P89" s="60"/>
+      <c r="Q89" s="60"/>
+      <c r="R89" s="60"/>
+      <c r="S89" s="60"/>
+      <c r="T89" s="60"/>
+      <c r="U89" s="60"/>
+      <c r="V89" s="60"/>
+      <c r="W89" s="60"/>
+      <c r="X89" s="60"/>
+      <c r="Y89" s="60"/>
+      <c r="Z89" s="60"/>
+      <c r="AA89" s="60"/>
+      <c r="AB89" s="60"/>
+      <c r="AC89" s="60"/>
+      <c r="AD89" s="60"/>
+      <c r="AE89" s="60"/>
+      <c r="AF89" s="60"/>
+      <c r="AG89" s="60"/>
+      <c r="AH89" s="60"/>
+      <c r="AI89" s="60"/>
+      <c r="AJ89" s="60"/>
+      <c r="AK89" s="60"/>
+      <c r="AL89" s="60"/>
+      <c r="AM89" s="58"/>
+      <c r="AN89" s="58"/>
     </row>
     <row r="90" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="6"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="15"/>
-      <c r="G90" s="13"/>
-      <c r="H90" s="14"/>
-      <c r="I90" s="16"/>
-      <c r="J90" s="15"/>
-      <c r="K90" s="17"/>
-      <c r="L90" s="14"/>
-      <c r="M90" s="15"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="14"/>
-      <c r="P90" s="15"/>
-      <c r="Q90" s="15"/>
-      <c r="R90" s="17"/>
-      <c r="S90" s="14"/>
-      <c r="T90" s="17"/>
-      <c r="U90" s="14"/>
-      <c r="V90" s="17"/>
-      <c r="W90" s="14"/>
-      <c r="X90" s="15"/>
-      <c r="Y90" s="15"/>
-      <c r="Z90" s="17"/>
-      <c r="AA90" s="14"/>
-      <c r="AB90" s="15"/>
-      <c r="AC90" s="17"/>
-      <c r="AD90" s="14"/>
-      <c r="AE90" s="15"/>
-      <c r="AF90" s="15"/>
-      <c r="AG90" s="15"/>
-      <c r="AH90" s="15"/>
-      <c r="AI90" s="15"/>
-      <c r="AJ90" s="15"/>
-      <c r="AK90" s="15"/>
-      <c r="AL90" s="15"/>
-      <c r="AM90" s="18"/>
-      <c r="AN90" s="7"/>
+      <c r="A90" s="58"/>
+      <c r="B90" s="58"/>
+      <c r="C90" s="59"/>
+      <c r="D90" s="60"/>
+      <c r="E90" s="60"/>
+      <c r="F90" s="60"/>
+      <c r="G90" s="59"/>
+      <c r="H90" s="60"/>
+      <c r="I90" s="59"/>
+      <c r="J90" s="60"/>
+      <c r="K90" s="60"/>
+      <c r="L90" s="60"/>
+      <c r="M90" s="60"/>
+      <c r="N90" s="60"/>
+      <c r="O90" s="60"/>
+      <c r="P90" s="60"/>
+      <c r="Q90" s="60"/>
+      <c r="R90" s="60"/>
+      <c r="S90" s="60"/>
+      <c r="T90" s="60"/>
+      <c r="U90" s="60"/>
+      <c r="V90" s="60"/>
+      <c r="W90" s="60"/>
+      <c r="X90" s="60"/>
+      <c r="Y90" s="60"/>
+      <c r="Z90" s="60"/>
+      <c r="AA90" s="60"/>
+      <c r="AB90" s="60"/>
+      <c r="AC90" s="60"/>
+      <c r="AD90" s="60"/>
+      <c r="AE90" s="60"/>
+      <c r="AF90" s="60"/>
+      <c r="AG90" s="60"/>
+      <c r="AH90" s="60"/>
+      <c r="AI90" s="60"/>
+      <c r="AJ90" s="60"/>
+      <c r="AK90" s="60"/>
+      <c r="AL90" s="60"/>
+      <c r="AM90" s="58"/>
+      <c r="AN90" s="58"/>
     </row>
     <row r="91" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="6"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="15"/>
-      <c r="F91" s="15"/>
-      <c r="G91" s="13"/>
-      <c r="H91" s="14"/>
-      <c r="I91" s="16"/>
-      <c r="J91" s="15"/>
-      <c r="K91" s="17"/>
-      <c r="L91" s="14"/>
-      <c r="M91" s="15"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="14"/>
-      <c r="P91" s="15"/>
-      <c r="Q91" s="15"/>
-      <c r="R91" s="17"/>
-      <c r="S91" s="14"/>
-      <c r="T91" s="17"/>
-      <c r="U91" s="14"/>
-      <c r="V91" s="17"/>
-      <c r="W91" s="14"/>
-      <c r="X91" s="15"/>
-      <c r="Y91" s="15"/>
-      <c r="Z91" s="17"/>
-      <c r="AA91" s="14"/>
-      <c r="AB91" s="15"/>
-      <c r="AC91" s="17"/>
-      <c r="AD91" s="14"/>
-      <c r="AE91" s="15"/>
-      <c r="AF91" s="15"/>
-      <c r="AG91" s="15"/>
-      <c r="AH91" s="15"/>
-      <c r="AI91" s="15"/>
-      <c r="AJ91" s="15"/>
-      <c r="AK91" s="15"/>
-      <c r="AL91" s="15"/>
-      <c r="AM91" s="18"/>
-      <c r="AN91" s="7"/>
+      <c r="A91" s="58"/>
+      <c r="B91" s="58"/>
+      <c r="C91" s="59"/>
+      <c r="D91" s="60"/>
+      <c r="E91" s="60"/>
+      <c r="F91" s="60"/>
+      <c r="G91" s="59"/>
+      <c r="H91" s="60"/>
+      <c r="I91" s="59"/>
+      <c r="J91" s="60"/>
+      <c r="K91" s="60"/>
+      <c r="L91" s="60"/>
+      <c r="M91" s="60"/>
+      <c r="N91" s="60"/>
+      <c r="O91" s="60"/>
+      <c r="P91" s="60"/>
+      <c r="Q91" s="60"/>
+      <c r="R91" s="60"/>
+      <c r="S91" s="60"/>
+      <c r="T91" s="60"/>
+      <c r="U91" s="60"/>
+      <c r="V91" s="60"/>
+      <c r="W91" s="60"/>
+      <c r="X91" s="60"/>
+      <c r="Y91" s="60"/>
+      <c r="Z91" s="60"/>
+      <c r="AA91" s="60"/>
+      <c r="AB91" s="60"/>
+      <c r="AC91" s="60"/>
+      <c r="AD91" s="60"/>
+      <c r="AE91" s="60"/>
+      <c r="AF91" s="60"/>
+      <c r="AG91" s="60"/>
+      <c r="AH91" s="60"/>
+      <c r="AI91" s="60"/>
+      <c r="AJ91" s="60"/>
+      <c r="AK91" s="60"/>
+      <c r="AL91" s="60"/>
+      <c r="AM91" s="58"/>
+      <c r="AN91" s="58"/>
     </row>
     <row r="92" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="6"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="15"/>
-      <c r="F92" s="15"/>
-      <c r="G92" s="13"/>
-      <c r="H92" s="14"/>
-      <c r="I92" s="16"/>
-      <c r="J92" s="15"/>
-      <c r="K92" s="17"/>
-      <c r="L92" s="14"/>
-      <c r="M92" s="15"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="14"/>
-      <c r="P92" s="15"/>
-      <c r="Q92" s="15"/>
-      <c r="R92" s="17"/>
-      <c r="S92" s="14"/>
-      <c r="T92" s="17"/>
-      <c r="U92" s="14"/>
-      <c r="V92" s="17"/>
-      <c r="W92" s="14"/>
-      <c r="X92" s="15"/>
-      <c r="Y92" s="15"/>
-      <c r="Z92" s="17"/>
-      <c r="AA92" s="14"/>
-      <c r="AB92" s="15"/>
-      <c r="AC92" s="17"/>
-      <c r="AD92" s="14"/>
-      <c r="AE92" s="15"/>
-      <c r="AF92" s="15"/>
-      <c r="AG92" s="15"/>
-      <c r="AH92" s="15"/>
-      <c r="AI92" s="15"/>
-      <c r="AJ92" s="15"/>
-      <c r="AK92" s="15"/>
-      <c r="AL92" s="15"/>
-      <c r="AM92" s="18"/>
-      <c r="AN92" s="7"/>
+      <c r="A92" s="58"/>
+      <c r="B92" s="58"/>
+      <c r="C92" s="59"/>
+      <c r="D92" s="60"/>
+      <c r="E92" s="60"/>
+      <c r="F92" s="60"/>
+      <c r="G92" s="59"/>
+      <c r="H92" s="60"/>
+      <c r="I92" s="59"/>
+      <c r="J92" s="60"/>
+      <c r="K92" s="60"/>
+      <c r="L92" s="60"/>
+      <c r="M92" s="60"/>
+      <c r="N92" s="60"/>
+      <c r="O92" s="60"/>
+      <c r="P92" s="60"/>
+      <c r="Q92" s="60"/>
+      <c r="R92" s="60"/>
+      <c r="S92" s="60"/>
+      <c r="T92" s="60"/>
+      <c r="U92" s="60"/>
+      <c r="V92" s="60"/>
+      <c r="W92" s="60"/>
+      <c r="X92" s="60"/>
+      <c r="Y92" s="60"/>
+      <c r="Z92" s="60"/>
+      <c r="AA92" s="60"/>
+      <c r="AB92" s="60"/>
+      <c r="AC92" s="60"/>
+      <c r="AD92" s="60"/>
+      <c r="AE92" s="60"/>
+      <c r="AF92" s="60"/>
+      <c r="AG92" s="60"/>
+      <c r="AH92" s="60"/>
+      <c r="AI92" s="60"/>
+      <c r="AJ92" s="60"/>
+      <c r="AK92" s="60"/>
+      <c r="AL92" s="60"/>
+      <c r="AM92" s="58"/>
+      <c r="AN92" s="58"/>
     </row>
     <row r="93" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="6"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="15"/>
-      <c r="F93" s="15"/>
-      <c r="G93" s="13"/>
-      <c r="H93" s="14"/>
-      <c r="I93" s="16"/>
-      <c r="J93" s="15"/>
-      <c r="K93" s="17"/>
-      <c r="L93" s="14"/>
-      <c r="M93" s="15"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="14"/>
-      <c r="P93" s="15"/>
-      <c r="Q93" s="15"/>
-      <c r="R93" s="17"/>
-      <c r="S93" s="14"/>
-      <c r="T93" s="17"/>
-      <c r="U93" s="14"/>
-      <c r="V93" s="17"/>
-      <c r="W93" s="14"/>
-      <c r="X93" s="15"/>
-      <c r="Y93" s="15"/>
-      <c r="Z93" s="17"/>
-      <c r="AA93" s="14"/>
-      <c r="AB93" s="15"/>
-      <c r="AC93" s="17"/>
-      <c r="AD93" s="14"/>
-      <c r="AE93" s="15"/>
-      <c r="AF93" s="15"/>
-      <c r="AG93" s="15"/>
-      <c r="AH93" s="15"/>
-      <c r="AI93" s="15"/>
-      <c r="AJ93" s="15"/>
-      <c r="AK93" s="15"/>
-      <c r="AL93" s="15"/>
-      <c r="AM93" s="18"/>
-      <c r="AN93" s="7"/>
+      <c r="A93" s="58"/>
+      <c r="B93" s="58"/>
+      <c r="C93" s="59"/>
+      <c r="D93" s="60"/>
+      <c r="E93" s="60"/>
+      <c r="F93" s="60"/>
+      <c r="G93" s="59"/>
+      <c r="H93" s="60"/>
+      <c r="I93" s="59"/>
+      <c r="J93" s="60"/>
+      <c r="K93" s="60"/>
+      <c r="L93" s="60"/>
+      <c r="M93" s="60"/>
+      <c r="N93" s="60"/>
+      <c r="O93" s="60"/>
+      <c r="P93" s="60"/>
+      <c r="Q93" s="60"/>
+      <c r="R93" s="60"/>
+      <c r="S93" s="60"/>
+      <c r="T93" s="60"/>
+      <c r="U93" s="60"/>
+      <c r="V93" s="60"/>
+      <c r="W93" s="60"/>
+      <c r="X93" s="60"/>
+      <c r="Y93" s="60"/>
+      <c r="Z93" s="60"/>
+      <c r="AA93" s="60"/>
+      <c r="AB93" s="60"/>
+      <c r="AC93" s="60"/>
+      <c r="AD93" s="60"/>
+      <c r="AE93" s="60"/>
+      <c r="AF93" s="60"/>
+      <c r="AG93" s="60"/>
+      <c r="AH93" s="60"/>
+      <c r="AI93" s="60"/>
+      <c r="AJ93" s="60"/>
+      <c r="AK93" s="60"/>
+      <c r="AL93" s="60"/>
+      <c r="AM93" s="58"/>
+      <c r="AN93" s="58"/>
     </row>
     <row r="94" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="6"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="15"/>
-      <c r="F94" s="15"/>
-      <c r="G94" s="13"/>
-      <c r="H94" s="14"/>
-      <c r="I94" s="16"/>
-      <c r="J94" s="15"/>
-      <c r="K94" s="17"/>
-      <c r="L94" s="14"/>
-      <c r="M94" s="15"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="14"/>
-      <c r="P94" s="15"/>
-      <c r="Q94" s="15"/>
-      <c r="R94" s="17"/>
-      <c r="S94" s="14"/>
-      <c r="T94" s="17"/>
-      <c r="U94" s="14"/>
-      <c r="V94" s="17"/>
-      <c r="W94" s="14"/>
-      <c r="X94" s="15"/>
-      <c r="Y94" s="15"/>
-      <c r="Z94" s="17"/>
-      <c r="AA94" s="14"/>
-      <c r="AB94" s="15"/>
-      <c r="AC94" s="17"/>
-      <c r="AD94" s="14"/>
-      <c r="AE94" s="15"/>
-      <c r="AF94" s="15"/>
-      <c r="AG94" s="15"/>
-      <c r="AH94" s="15"/>
-      <c r="AI94" s="15"/>
-      <c r="AJ94" s="15"/>
-      <c r="AK94" s="15"/>
-      <c r="AL94" s="15"/>
-      <c r="AM94" s="18"/>
-      <c r="AN94" s="7"/>
+      <c r="A94" s="58"/>
+      <c r="B94" s="58"/>
+      <c r="C94" s="59"/>
+      <c r="D94" s="60"/>
+      <c r="E94" s="60"/>
+      <c r="F94" s="60"/>
+      <c r="G94" s="59"/>
+      <c r="H94" s="60"/>
+      <c r="I94" s="59"/>
+      <c r="J94" s="60"/>
+      <c r="K94" s="60"/>
+      <c r="L94" s="60"/>
+      <c r="M94" s="60"/>
+      <c r="N94" s="60"/>
+      <c r="O94" s="60"/>
+      <c r="P94" s="60"/>
+      <c r="Q94" s="60"/>
+      <c r="R94" s="60"/>
+      <c r="S94" s="60"/>
+      <c r="T94" s="60"/>
+      <c r="U94" s="60"/>
+      <c r="V94" s="60"/>
+      <c r="W94" s="60"/>
+      <c r="X94" s="60"/>
+      <c r="Y94" s="60"/>
+      <c r="Z94" s="60"/>
+      <c r="AA94" s="60"/>
+      <c r="AB94" s="60"/>
+      <c r="AC94" s="60"/>
+      <c r="AD94" s="60"/>
+      <c r="AE94" s="60"/>
+      <c r="AF94" s="60"/>
+      <c r="AG94" s="60"/>
+      <c r="AH94" s="60"/>
+      <c r="AI94" s="60"/>
+      <c r="AJ94" s="60"/>
+      <c r="AK94" s="60"/>
+      <c r="AL94" s="60"/>
+      <c r="AM94" s="58"/>
+      <c r="AN94" s="58"/>
     </row>
     <row r="95" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="6"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="15"/>
-      <c r="F95" s="15"/>
-      <c r="G95" s="13"/>
-      <c r="H95" s="14"/>
-      <c r="I95" s="16"/>
-      <c r="J95" s="15"/>
-      <c r="K95" s="17"/>
-      <c r="L95" s="14"/>
-      <c r="M95" s="15"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="14"/>
-      <c r="P95" s="15"/>
-      <c r="Q95" s="15"/>
-      <c r="R95" s="17"/>
-      <c r="S95" s="14"/>
-      <c r="T95" s="17"/>
-      <c r="U95" s="14"/>
-      <c r="V95" s="17"/>
-      <c r="W95" s="14"/>
-      <c r="X95" s="15"/>
-      <c r="Y95" s="15"/>
-      <c r="Z95" s="17"/>
-      <c r="AA95" s="14"/>
-      <c r="AB95" s="15"/>
-      <c r="AC95" s="17"/>
-      <c r="AD95" s="14"/>
-      <c r="AE95" s="15"/>
-      <c r="AF95" s="15"/>
-      <c r="AG95" s="15"/>
-      <c r="AH95" s="15"/>
-      <c r="AI95" s="15"/>
-      <c r="AJ95" s="15"/>
-      <c r="AK95" s="15"/>
-      <c r="AL95" s="15"/>
-      <c r="AM95" s="18"/>
-      <c r="AN95" s="7"/>
+      <c r="A95" s="58"/>
+      <c r="B95" s="58"/>
+      <c r="C95" s="59"/>
+      <c r="D95" s="60"/>
+      <c r="E95" s="60"/>
+      <c r="F95" s="60"/>
+      <c r="G95" s="59"/>
+      <c r="H95" s="60"/>
+      <c r="I95" s="59"/>
+      <c r="J95" s="60"/>
+      <c r="K95" s="60"/>
+      <c r="L95" s="60"/>
+      <c r="M95" s="60"/>
+      <c r="N95" s="60"/>
+      <c r="O95" s="60"/>
+      <c r="P95" s="60"/>
+      <c r="Q95" s="60"/>
+      <c r="R95" s="60"/>
+      <c r="S95" s="60"/>
+      <c r="T95" s="60"/>
+      <c r="U95" s="60"/>
+      <c r="V95" s="60"/>
+      <c r="W95" s="60"/>
+      <c r="X95" s="60"/>
+      <c r="Y95" s="60"/>
+      <c r="Z95" s="60"/>
+      <c r="AA95" s="60"/>
+      <c r="AB95" s="60"/>
+      <c r="AC95" s="60"/>
+      <c r="AD95" s="60"/>
+      <c r="AE95" s="60"/>
+      <c r="AF95" s="60"/>
+      <c r="AG95" s="60"/>
+      <c r="AH95" s="60"/>
+      <c r="AI95" s="60"/>
+      <c r="AJ95" s="60"/>
+      <c r="AK95" s="60"/>
+      <c r="AL95" s="60"/>
+      <c r="AM95" s="58"/>
+      <c r="AN95" s="58"/>
     </row>
     <row r="96" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="6"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="15"/>
-      <c r="F96" s="15"/>
-      <c r="G96" s="13"/>
-      <c r="H96" s="14"/>
-      <c r="I96" s="16"/>
-      <c r="J96" s="15"/>
-      <c r="K96" s="17"/>
-      <c r="L96" s="14"/>
-      <c r="M96" s="15"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="14"/>
-      <c r="P96" s="15"/>
-      <c r="Q96" s="15"/>
-      <c r="R96" s="17"/>
-      <c r="S96" s="14"/>
-      <c r="T96" s="17"/>
-      <c r="U96" s="14"/>
-      <c r="V96" s="17"/>
-      <c r="W96" s="14"/>
-      <c r="X96" s="15"/>
-      <c r="Y96" s="15"/>
-      <c r="Z96" s="17"/>
-      <c r="AA96" s="14"/>
-      <c r="AB96" s="15"/>
-      <c r="AC96" s="17"/>
-      <c r="AD96" s="14"/>
-      <c r="AE96" s="15"/>
-      <c r="AF96" s="15"/>
-      <c r="AG96" s="15"/>
-      <c r="AH96" s="15"/>
-      <c r="AI96" s="15"/>
-      <c r="AJ96" s="15"/>
-      <c r="AK96" s="15"/>
-      <c r="AL96" s="15"/>
-      <c r="AM96" s="18"/>
-      <c r="AN96" s="7"/>
+      <c r="A96" s="58"/>
+      <c r="B96" s="58"/>
+      <c r="C96" s="59"/>
+      <c r="D96" s="60"/>
+      <c r="E96" s="60"/>
+      <c r="F96" s="60"/>
+      <c r="G96" s="59"/>
+      <c r="H96" s="60"/>
+      <c r="I96" s="59"/>
+      <c r="J96" s="60"/>
+      <c r="K96" s="60"/>
+      <c r="L96" s="60"/>
+      <c r="M96" s="60"/>
+      <c r="N96" s="60"/>
+      <c r="O96" s="60"/>
+      <c r="P96" s="60"/>
+      <c r="Q96" s="60"/>
+      <c r="R96" s="60"/>
+      <c r="S96" s="60"/>
+      <c r="T96" s="60"/>
+      <c r="U96" s="60"/>
+      <c r="V96" s="60"/>
+      <c r="W96" s="60"/>
+      <c r="X96" s="60"/>
+      <c r="Y96" s="60"/>
+      <c r="Z96" s="60"/>
+      <c r="AA96" s="60"/>
+      <c r="AB96" s="60"/>
+      <c r="AC96" s="60"/>
+      <c r="AD96" s="60"/>
+      <c r="AE96" s="60"/>
+      <c r="AF96" s="60"/>
+      <c r="AG96" s="60"/>
+      <c r="AH96" s="60"/>
+      <c r="AI96" s="60"/>
+      <c r="AJ96" s="60"/>
+      <c r="AK96" s="60"/>
+      <c r="AL96" s="60"/>
+      <c r="AM96" s="58"/>
+      <c r="AN96" s="58"/>
     </row>
     <row r="97" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="6"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="15"/>
-      <c r="F97" s="15"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="14"/>
-      <c r="I97" s="16"/>
-      <c r="J97" s="15"/>
-      <c r="K97" s="17"/>
-      <c r="L97" s="14"/>
-      <c r="M97" s="15"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="14"/>
-      <c r="P97" s="15"/>
-      <c r="Q97" s="15"/>
-      <c r="R97" s="17"/>
-      <c r="S97" s="14"/>
-      <c r="T97" s="17"/>
-      <c r="U97" s="14"/>
-      <c r="V97" s="17"/>
-      <c r="W97" s="14"/>
-      <c r="X97" s="15"/>
-      <c r="Y97" s="15"/>
-      <c r="Z97" s="17"/>
-      <c r="AA97" s="14"/>
-      <c r="AB97" s="15"/>
-      <c r="AC97" s="17"/>
-      <c r="AD97" s="14"/>
-      <c r="AE97" s="15"/>
-      <c r="AF97" s="15"/>
-      <c r="AG97" s="15"/>
-      <c r="AH97" s="15"/>
-      <c r="AI97" s="15"/>
-      <c r="AJ97" s="15"/>
-      <c r="AK97" s="15"/>
-      <c r="AL97" s="15"/>
-      <c r="AM97" s="18"/>
-      <c r="AN97" s="7"/>
+      <c r="A97" s="58"/>
+      <c r="B97" s="58"/>
+      <c r="C97" s="59"/>
+      <c r="D97" s="60"/>
+      <c r="E97" s="60"/>
+      <c r="F97" s="60"/>
+      <c r="G97" s="59"/>
+      <c r="H97" s="60"/>
+      <c r="I97" s="59"/>
+      <c r="J97" s="60"/>
+      <c r="K97" s="60"/>
+      <c r="L97" s="60"/>
+      <c r="M97" s="60"/>
+      <c r="N97" s="60"/>
+      <c r="O97" s="60"/>
+      <c r="P97" s="60"/>
+      <c r="Q97" s="60"/>
+      <c r="R97" s="60"/>
+      <c r="S97" s="60"/>
+      <c r="T97" s="60"/>
+      <c r="U97" s="60"/>
+      <c r="V97" s="60"/>
+      <c r="W97" s="60"/>
+      <c r="X97" s="60"/>
+      <c r="Y97" s="60"/>
+      <c r="Z97" s="60"/>
+      <c r="AA97" s="60"/>
+      <c r="AB97" s="60"/>
+      <c r="AC97" s="60"/>
+      <c r="AD97" s="60"/>
+      <c r="AE97" s="60"/>
+      <c r="AF97" s="60"/>
+      <c r="AG97" s="60"/>
+      <c r="AH97" s="60"/>
+      <c r="AI97" s="60"/>
+      <c r="AJ97" s="60"/>
+      <c r="AK97" s="60"/>
+      <c r="AL97" s="60"/>
+      <c r="AM97" s="58"/>
+      <c r="AN97" s="58"/>
     </row>
     <row r="98" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="6"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="15"/>
-      <c r="F98" s="15"/>
-      <c r="G98" s="13"/>
-      <c r="H98" s="14"/>
-      <c r="I98" s="16"/>
-      <c r="J98" s="15"/>
-      <c r="K98" s="17"/>
-      <c r="L98" s="14"/>
-      <c r="M98" s="15"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="14"/>
-      <c r="P98" s="15"/>
-      <c r="Q98" s="15"/>
-      <c r="R98" s="17"/>
-      <c r="S98" s="14"/>
-      <c r="T98" s="17"/>
-      <c r="U98" s="14"/>
-      <c r="V98" s="17"/>
-      <c r="W98" s="14"/>
-      <c r="X98" s="15"/>
-      <c r="Y98" s="15"/>
-      <c r="Z98" s="17"/>
-      <c r="AA98" s="14"/>
-      <c r="AB98" s="15"/>
-      <c r="AC98" s="17"/>
-      <c r="AD98" s="14"/>
-      <c r="AE98" s="15"/>
-      <c r="AF98" s="15"/>
-      <c r="AG98" s="15"/>
-      <c r="AH98" s="15"/>
-      <c r="AI98" s="15"/>
-      <c r="AJ98" s="15"/>
-      <c r="AK98" s="15"/>
-      <c r="AL98" s="15"/>
-      <c r="AM98" s="18"/>
-      <c r="AN98" s="7"/>
+      <c r="A98" s="58"/>
+      <c r="B98" s="58"/>
+      <c r="C98" s="59"/>
+      <c r="D98" s="60"/>
+      <c r="E98" s="60"/>
+      <c r="F98" s="60"/>
+      <c r="G98" s="59"/>
+      <c r="H98" s="60"/>
+      <c r="I98" s="59"/>
+      <c r="J98" s="60"/>
+      <c r="K98" s="60"/>
+      <c r="L98" s="60"/>
+      <c r="M98" s="60"/>
+      <c r="N98" s="60"/>
+      <c r="O98" s="60"/>
+      <c r="P98" s="60"/>
+      <c r="Q98" s="60"/>
+      <c r="R98" s="60"/>
+      <c r="S98" s="60"/>
+      <c r="T98" s="60"/>
+      <c r="U98" s="60"/>
+      <c r="V98" s="60"/>
+      <c r="W98" s="60"/>
+      <c r="X98" s="60"/>
+      <c r="Y98" s="60"/>
+      <c r="Z98" s="60"/>
+      <c r="AA98" s="60"/>
+      <c r="AB98" s="60"/>
+      <c r="AC98" s="60"/>
+      <c r="AD98" s="60"/>
+      <c r="AE98" s="60"/>
+      <c r="AF98" s="60"/>
+      <c r="AG98" s="60"/>
+      <c r="AH98" s="60"/>
+      <c r="AI98" s="60"/>
+      <c r="AJ98" s="60"/>
+      <c r="AK98" s="60"/>
+      <c r="AL98" s="60"/>
+      <c r="AM98" s="58"/>
+      <c r="AN98" s="58"/>
     </row>
     <row r="99" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="6"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="15"/>
-      <c r="F99" s="15"/>
-      <c r="G99" s="13"/>
-      <c r="H99" s="14"/>
-      <c r="I99" s="16"/>
-      <c r="J99" s="15"/>
-      <c r="K99" s="17"/>
-      <c r="L99" s="14"/>
-      <c r="M99" s="15"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="14"/>
-      <c r="P99" s="15"/>
-      <c r="Q99" s="15"/>
-      <c r="R99" s="17"/>
-      <c r="S99" s="14"/>
-      <c r="T99" s="17"/>
-      <c r="U99" s="14"/>
-      <c r="V99" s="17"/>
-      <c r="W99" s="14"/>
-      <c r="X99" s="15"/>
-      <c r="Y99" s="15"/>
-      <c r="Z99" s="17"/>
-      <c r="AA99" s="14"/>
-      <c r="AB99" s="15"/>
-      <c r="AC99" s="17"/>
-      <c r="AD99" s="14"/>
-      <c r="AE99" s="15"/>
-      <c r="AF99" s="15"/>
-      <c r="AG99" s="15"/>
-      <c r="AH99" s="15"/>
-      <c r="AI99" s="15"/>
-      <c r="AJ99" s="15"/>
-      <c r="AK99" s="15"/>
-      <c r="AL99" s="15"/>
-      <c r="AM99" s="18"/>
-      <c r="AN99" s="7"/>
+      <c r="A99" s="58"/>
+      <c r="B99" s="58"/>
+      <c r="C99" s="59"/>
+      <c r="D99" s="60"/>
+      <c r="E99" s="60"/>
+      <c r="F99" s="60"/>
+      <c r="G99" s="59"/>
+      <c r="H99" s="60"/>
+      <c r="I99" s="59"/>
+      <c r="J99" s="60"/>
+      <c r="K99" s="60"/>
+      <c r="L99" s="60"/>
+      <c r="M99" s="60"/>
+      <c r="N99" s="60"/>
+      <c r="O99" s="60"/>
+      <c r="P99" s="60"/>
+      <c r="Q99" s="60"/>
+      <c r="R99" s="60"/>
+      <c r="S99" s="60"/>
+      <c r="T99" s="60"/>
+      <c r="U99" s="60"/>
+      <c r="V99" s="60"/>
+      <c r="W99" s="60"/>
+      <c r="X99" s="60"/>
+      <c r="Y99" s="60"/>
+      <c r="Z99" s="60"/>
+      <c r="AA99" s="60"/>
+      <c r="AB99" s="60"/>
+      <c r="AC99" s="60"/>
+      <c r="AD99" s="60"/>
+      <c r="AE99" s="60"/>
+      <c r="AF99" s="60"/>
+      <c r="AG99" s="60"/>
+      <c r="AH99" s="60"/>
+      <c r="AI99" s="60"/>
+      <c r="AJ99" s="60"/>
+      <c r="AK99" s="60"/>
+      <c r="AL99" s="60"/>
+      <c r="AM99" s="58"/>
+      <c r="AN99" s="58"/>
     </row>
     <row r="100" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="6"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="15"/>
-      <c r="F100" s="15"/>
-      <c r="G100" s="13"/>
-      <c r="H100" s="14"/>
-      <c r="I100" s="16"/>
-      <c r="J100" s="15"/>
-      <c r="K100" s="17"/>
-      <c r="L100" s="14"/>
-      <c r="M100" s="15"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="14"/>
-      <c r="P100" s="15"/>
-      <c r="Q100" s="15"/>
-      <c r="R100" s="17"/>
-      <c r="S100" s="14"/>
-      <c r="T100" s="17"/>
-      <c r="U100" s="14"/>
-      <c r="V100" s="17"/>
-      <c r="W100" s="14"/>
-      <c r="X100" s="15"/>
-      <c r="Y100" s="15"/>
-      <c r="Z100" s="17"/>
-      <c r="AA100" s="14"/>
-      <c r="AB100" s="15"/>
-      <c r="AC100" s="17"/>
-      <c r="AD100" s="14"/>
-      <c r="AE100" s="15"/>
-      <c r="AF100" s="15"/>
-      <c r="AG100" s="15"/>
-      <c r="AH100" s="15"/>
-      <c r="AI100" s="15"/>
-      <c r="AJ100" s="15"/>
-      <c r="AK100" s="15"/>
-      <c r="AL100" s="15"/>
-      <c r="AM100" s="18"/>
-      <c r="AN100" s="7"/>
+      <c r="A100" s="58"/>
+      <c r="B100" s="58"/>
+      <c r="C100" s="59"/>
+      <c r="D100" s="60"/>
+      <c r="E100" s="60"/>
+      <c r="F100" s="60"/>
+      <c r="G100" s="59"/>
+      <c r="H100" s="60"/>
+      <c r="I100" s="59"/>
+      <c r="J100" s="60"/>
+      <c r="K100" s="60"/>
+      <c r="L100" s="60"/>
+      <c r="M100" s="60"/>
+      <c r="N100" s="60"/>
+      <c r="O100" s="60"/>
+      <c r="P100" s="60"/>
+      <c r="Q100" s="60"/>
+      <c r="R100" s="60"/>
+      <c r="S100" s="60"/>
+      <c r="T100" s="60"/>
+      <c r="U100" s="60"/>
+      <c r="V100" s="60"/>
+      <c r="W100" s="60"/>
+      <c r="X100" s="60"/>
+      <c r="Y100" s="60"/>
+      <c r="Z100" s="60"/>
+      <c r="AA100" s="60"/>
+      <c r="AB100" s="60"/>
+      <c r="AC100" s="60"/>
+      <c r="AD100" s="60"/>
+      <c r="AE100" s="60"/>
+      <c r="AF100" s="60"/>
+      <c r="AG100" s="60"/>
+      <c r="AH100" s="60"/>
+      <c r="AI100" s="60"/>
+      <c r="AJ100" s="60"/>
+      <c r="AK100" s="60"/>
+      <c r="AL100" s="60"/>
+      <c r="AM100" s="58"/>
+      <c r="AN100" s="58"/>
     </row>
     <row r="101" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="6"/>
-      <c r="B101" s="12"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="15"/>
-      <c r="F101" s="15"/>
-      <c r="G101" s="13"/>
-      <c r="H101" s="14"/>
-      <c r="I101" s="16"/>
-      <c r="J101" s="15"/>
-      <c r="K101" s="17"/>
-      <c r="L101" s="14"/>
-      <c r="M101" s="15"/>
-      <c r="N101" s="17"/>
-      <c r="O101" s="14"/>
-      <c r="P101" s="15"/>
-      <c r="Q101" s="15"/>
-      <c r="R101" s="17"/>
-      <c r="S101" s="14"/>
-      <c r="T101" s="17"/>
-      <c r="U101" s="14"/>
-      <c r="V101" s="17"/>
-      <c r="W101" s="14"/>
-      <c r="X101" s="15"/>
-      <c r="Y101" s="15"/>
-      <c r="Z101" s="17"/>
-      <c r="AA101" s="14"/>
-      <c r="AB101" s="15"/>
-      <c r="AC101" s="17"/>
-      <c r="AD101" s="14"/>
-      <c r="AE101" s="15"/>
-      <c r="AF101" s="15"/>
-      <c r="AG101" s="15"/>
-      <c r="AH101" s="15"/>
-      <c r="AI101" s="15"/>
-      <c r="AJ101" s="15"/>
-      <c r="AK101" s="15"/>
-      <c r="AL101" s="15"/>
-      <c r="AM101" s="18"/>
-      <c r="AN101" s="7"/>
+      <c r="A101" s="58"/>
+      <c r="B101" s="58"/>
+      <c r="C101" s="59"/>
+      <c r="D101" s="60"/>
+      <c r="E101" s="60"/>
+      <c r="F101" s="60"/>
+      <c r="G101" s="59"/>
+      <c r="H101" s="60"/>
+      <c r="I101" s="59"/>
+      <c r="J101" s="60"/>
+      <c r="K101" s="60"/>
+      <c r="L101" s="60"/>
+      <c r="M101" s="60"/>
+      <c r="N101" s="60"/>
+      <c r="O101" s="60"/>
+      <c r="P101" s="60"/>
+      <c r="Q101" s="60"/>
+      <c r="R101" s="60"/>
+      <c r="S101" s="60"/>
+      <c r="T101" s="60"/>
+      <c r="U101" s="60"/>
+      <c r="V101" s="60"/>
+      <c r="W101" s="60"/>
+      <c r="X101" s="60"/>
+      <c r="Y101" s="60"/>
+      <c r="Z101" s="60"/>
+      <c r="AA101" s="60"/>
+      <c r="AB101" s="60"/>
+      <c r="AC101" s="60"/>
+      <c r="AD101" s="60"/>
+      <c r="AE101" s="60"/>
+      <c r="AF101" s="60"/>
+      <c r="AG101" s="60"/>
+      <c r="AH101" s="60"/>
+      <c r="AI101" s="60"/>
+      <c r="AJ101" s="60"/>
+      <c r="AK101" s="60"/>
+      <c r="AL101" s="60"/>
+      <c r="AM101" s="58"/>
+      <c r="AN101" s="58"/>
     </row>
     <row r="102" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="6"/>
-      <c r="B102" s="12"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="15"/>
-      <c r="F102" s="15"/>
-      <c r="G102" s="13"/>
-      <c r="H102" s="14"/>
-      <c r="I102" s="16"/>
-      <c r="J102" s="15"/>
-      <c r="K102" s="17"/>
-      <c r="L102" s="14"/>
-      <c r="M102" s="15"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="14"/>
-      <c r="P102" s="15"/>
-      <c r="Q102" s="15"/>
-      <c r="R102" s="17"/>
-      <c r="S102" s="14"/>
-      <c r="T102" s="17"/>
-      <c r="U102" s="14"/>
-      <c r="V102" s="17"/>
-      <c r="W102" s="14"/>
-      <c r="X102" s="15"/>
-      <c r="Y102" s="15"/>
-      <c r="Z102" s="17"/>
-      <c r="AA102" s="14"/>
-      <c r="AB102" s="15"/>
-      <c r="AC102" s="17"/>
-      <c r="AD102" s="14"/>
-      <c r="AE102" s="15"/>
-      <c r="AF102" s="15"/>
-      <c r="AG102" s="15"/>
-      <c r="AH102" s="15"/>
-      <c r="AI102" s="15"/>
-      <c r="AJ102" s="15"/>
-      <c r="AK102" s="15"/>
-      <c r="AL102" s="15"/>
-      <c r="AM102" s="18"/>
-      <c r="AN102" s="7"/>
+      <c r="A102" s="58"/>
+      <c r="B102" s="58"/>
+      <c r="C102" s="59"/>
+      <c r="D102" s="60"/>
+      <c r="E102" s="60"/>
+      <c r="F102" s="60"/>
+      <c r="G102" s="59"/>
+      <c r="H102" s="60"/>
+      <c r="I102" s="59"/>
+      <c r="J102" s="60"/>
+      <c r="K102" s="60"/>
+      <c r="L102" s="60"/>
+      <c r="M102" s="60"/>
+      <c r="N102" s="60"/>
+      <c r="O102" s="60"/>
+      <c r="P102" s="60"/>
+      <c r="Q102" s="60"/>
+      <c r="R102" s="60"/>
+      <c r="S102" s="60"/>
+      <c r="T102" s="60"/>
+      <c r="U102" s="60"/>
+      <c r="V102" s="60"/>
+      <c r="W102" s="60"/>
+      <c r="X102" s="60"/>
+      <c r="Y102" s="60"/>
+      <c r="Z102" s="60"/>
+      <c r="AA102" s="60"/>
+      <c r="AB102" s="60"/>
+      <c r="AC102" s="60"/>
+      <c r="AD102" s="60"/>
+      <c r="AE102" s="60"/>
+      <c r="AF102" s="60"/>
+      <c r="AG102" s="60"/>
+      <c r="AH102" s="60"/>
+      <c r="AI102" s="60"/>
+      <c r="AJ102" s="60"/>
+      <c r="AK102" s="60"/>
+      <c r="AL102" s="60"/>
+      <c r="AM102" s="58"/>
+      <c r="AN102" s="58"/>
     </row>
     <row r="103" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="6"/>
-      <c r="B103" s="12"/>
-      <c r="C103" s="13"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="15"/>
-      <c r="F103" s="15"/>
-      <c r="G103" s="13"/>
-      <c r="H103" s="14"/>
-      <c r="I103" s="16"/>
-      <c r="J103" s="15"/>
-      <c r="K103" s="17"/>
-      <c r="L103" s="14"/>
-      <c r="M103" s="15"/>
-      <c r="N103" s="17"/>
-      <c r="O103" s="14"/>
-      <c r="P103" s="15"/>
-      <c r="Q103" s="15"/>
-      <c r="R103" s="17"/>
-      <c r="S103" s="14"/>
-      <c r="T103" s="17"/>
-      <c r="U103" s="14"/>
-      <c r="V103" s="17"/>
-      <c r="W103" s="14"/>
-      <c r="X103" s="15"/>
-      <c r="Y103" s="15"/>
-      <c r="Z103" s="17"/>
-      <c r="AA103" s="14"/>
-      <c r="AB103" s="15"/>
-      <c r="AC103" s="17"/>
-      <c r="AD103" s="14"/>
-      <c r="AE103" s="15"/>
-      <c r="AF103" s="15"/>
-      <c r="AG103" s="15"/>
-      <c r="AH103" s="15"/>
-      <c r="AI103" s="15"/>
-      <c r="AJ103" s="15"/>
-      <c r="AK103" s="15"/>
-      <c r="AL103" s="15"/>
-      <c r="AM103" s="18"/>
-      <c r="AN103" s="7"/>
+      <c r="A103" s="58"/>
+      <c r="B103" s="58"/>
+      <c r="C103" s="59"/>
+      <c r="D103" s="60"/>
+      <c r="E103" s="60"/>
+      <c r="F103" s="60"/>
+      <c r="G103" s="59"/>
+      <c r="H103" s="60"/>
+      <c r="I103" s="59"/>
+      <c r="J103" s="60"/>
+      <c r="K103" s="60"/>
+      <c r="L103" s="60"/>
+      <c r="M103" s="60"/>
+      <c r="N103" s="60"/>
+      <c r="O103" s="60"/>
+      <c r="P103" s="60"/>
+      <c r="Q103" s="60"/>
+      <c r="R103" s="60"/>
+      <c r="S103" s="60"/>
+      <c r="T103" s="60"/>
+      <c r="U103" s="60"/>
+      <c r="V103" s="60"/>
+      <c r="W103" s="60"/>
+      <c r="X103" s="60"/>
+      <c r="Y103" s="60"/>
+      <c r="Z103" s="60"/>
+      <c r="AA103" s="60"/>
+      <c r="AB103" s="60"/>
+      <c r="AC103" s="60"/>
+      <c r="AD103" s="60"/>
+      <c r="AE103" s="60"/>
+      <c r="AF103" s="60"/>
+      <c r="AG103" s="60"/>
+      <c r="AH103" s="60"/>
+      <c r="AI103" s="60"/>
+      <c r="AJ103" s="60"/>
+      <c r="AK103" s="60"/>
+      <c r="AL103" s="60"/>
+      <c r="AM103" s="58"/>
+      <c r="AN103" s="58"/>
     </row>
     <row r="104" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="6"/>
-      <c r="B104" s="12"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="15"/>
-      <c r="F104" s="15"/>
-      <c r="G104" s="13"/>
-      <c r="H104" s="14"/>
-      <c r="I104" s="16"/>
-      <c r="J104" s="15"/>
-      <c r="K104" s="17"/>
-      <c r="L104" s="14"/>
-      <c r="M104" s="15"/>
-      <c r="N104" s="17"/>
-      <c r="O104" s="14"/>
-      <c r="P104" s="15"/>
-      <c r="Q104" s="15"/>
-      <c r="R104" s="17"/>
-      <c r="S104" s="14"/>
-      <c r="T104" s="17"/>
-      <c r="U104" s="14"/>
-      <c r="V104" s="17"/>
-      <c r="W104" s="14"/>
-      <c r="X104" s="15"/>
-      <c r="Y104" s="15"/>
-      <c r="Z104" s="17"/>
-      <c r="AA104" s="14"/>
-      <c r="AB104" s="15"/>
-      <c r="AC104" s="17"/>
-      <c r="AD104" s="14"/>
-      <c r="AE104" s="15"/>
-      <c r="AF104" s="15"/>
-      <c r="AG104" s="15"/>
-      <c r="AH104" s="15"/>
-      <c r="AI104" s="15"/>
-      <c r="AJ104" s="15"/>
-      <c r="AK104" s="15"/>
-      <c r="AL104" s="15"/>
-      <c r="AM104" s="18"/>
-      <c r="AN104" s="7"/>
+      <c r="A104" s="58"/>
+      <c r="B104" s="58"/>
+      <c r="C104" s="59"/>
+      <c r="D104" s="60"/>
+      <c r="E104" s="60"/>
+      <c r="F104" s="60"/>
+      <c r="G104" s="59"/>
+      <c r="H104" s="60"/>
+      <c r="I104" s="59"/>
+      <c r="J104" s="60"/>
+      <c r="K104" s="60"/>
+      <c r="L104" s="60"/>
+      <c r="M104" s="60"/>
+      <c r="N104" s="60"/>
+      <c r="O104" s="60"/>
+      <c r="P104" s="60"/>
+      <c r="Q104" s="60"/>
+      <c r="R104" s="60"/>
+      <c r="S104" s="60"/>
+      <c r="T104" s="60"/>
+      <c r="U104" s="60"/>
+      <c r="V104" s="60"/>
+      <c r="W104" s="60"/>
+      <c r="X104" s="60"/>
+      <c r="Y104" s="60"/>
+      <c r="Z104" s="60"/>
+      <c r="AA104" s="60"/>
+      <c r="AB104" s="60"/>
+      <c r="AC104" s="60"/>
+      <c r="AD104" s="60"/>
+      <c r="AE104" s="60"/>
+      <c r="AF104" s="60"/>
+      <c r="AG104" s="60"/>
+      <c r="AH104" s="60"/>
+      <c r="AI104" s="60"/>
+      <c r="AJ104" s="60"/>
+      <c r="AK104" s="60"/>
+      <c r="AL104" s="60"/>
+      <c r="AM104" s="58"/>
+      <c r="AN104" s="58"/>
     </row>
     <row r="105" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="6"/>
-      <c r="B105" s="12"/>
-      <c r="C105" s="13"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="15"/>
-      <c r="F105" s="15"/>
-      <c r="G105" s="13"/>
-      <c r="H105" s="14"/>
-      <c r="I105" s="16"/>
-      <c r="J105" s="15"/>
-      <c r="K105" s="17"/>
-      <c r="L105" s="14"/>
-      <c r="M105" s="15"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="14"/>
-      <c r="P105" s="15"/>
-      <c r="Q105" s="15"/>
-      <c r="R105" s="17"/>
-      <c r="S105" s="14"/>
-      <c r="T105" s="17"/>
-      <c r="U105" s="14"/>
-      <c r="V105" s="17"/>
-      <c r="W105" s="14"/>
-      <c r="X105" s="15"/>
-      <c r="Y105" s="15"/>
-      <c r="Z105" s="17"/>
-      <c r="AA105" s="14"/>
-      <c r="AB105" s="15"/>
-      <c r="AC105" s="17"/>
-      <c r="AD105" s="14"/>
-      <c r="AE105" s="15"/>
-      <c r="AF105" s="15"/>
-      <c r="AG105" s="15"/>
-      <c r="AH105" s="15"/>
-      <c r="AI105" s="15"/>
-      <c r="AJ105" s="15"/>
-      <c r="AK105" s="15"/>
-      <c r="AL105" s="15"/>
-      <c r="AM105" s="18"/>
-      <c r="AN105" s="7"/>
+      <c r="A105" s="58"/>
+      <c r="B105" s="58"/>
+      <c r="C105" s="59"/>
+      <c r="D105" s="60"/>
+      <c r="E105" s="60"/>
+      <c r="F105" s="60"/>
+      <c r="G105" s="59"/>
+      <c r="H105" s="60"/>
+      <c r="I105" s="59"/>
+      <c r="J105" s="60"/>
+      <c r="K105" s="60"/>
+      <c r="L105" s="60"/>
+      <c r="M105" s="60"/>
+      <c r="N105" s="60"/>
+      <c r="O105" s="60"/>
+      <c r="P105" s="60"/>
+      <c r="Q105" s="60"/>
+      <c r="R105" s="60"/>
+      <c r="S105" s="60"/>
+      <c r="T105" s="60"/>
+      <c r="U105" s="60"/>
+      <c r="V105" s="60"/>
+      <c r="W105" s="60"/>
+      <c r="X105" s="60"/>
+      <c r="Y105" s="60"/>
+      <c r="Z105" s="60"/>
+      <c r="AA105" s="60"/>
+      <c r="AB105" s="60"/>
+      <c r="AC105" s="60"/>
+      <c r="AD105" s="60"/>
+      <c r="AE105" s="60"/>
+      <c r="AF105" s="60"/>
+      <c r="AG105" s="60"/>
+      <c r="AH105" s="60"/>
+      <c r="AI105" s="60"/>
+      <c r="AJ105" s="60"/>
+      <c r="AK105" s="60"/>
+      <c r="AL105" s="60"/>
+      <c r="AM105" s="58"/>
+      <c r="AN105" s="58"/>
     </row>
     <row r="106" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="6"/>
-      <c r="B106" s="12"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="15"/>
-      <c r="F106" s="15"/>
-      <c r="G106" s="13"/>
-      <c r="H106" s="14"/>
-      <c r="I106" s="16"/>
-      <c r="J106" s="15"/>
-      <c r="K106" s="17"/>
-      <c r="L106" s="14"/>
-      <c r="M106" s="15"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="14"/>
-      <c r="P106" s="15"/>
-      <c r="Q106" s="15"/>
-      <c r="R106" s="17"/>
-      <c r="S106" s="14"/>
-      <c r="T106" s="17"/>
-      <c r="U106" s="14"/>
-      <c r="V106" s="17"/>
-      <c r="W106" s="14"/>
-      <c r="X106" s="15"/>
-      <c r="Y106" s="15"/>
-      <c r="Z106" s="17"/>
-      <c r="AA106" s="14"/>
-      <c r="AB106" s="15"/>
-      <c r="AC106" s="17"/>
-      <c r="AD106" s="14"/>
-      <c r="AE106" s="15"/>
-      <c r="AF106" s="15"/>
-      <c r="AG106" s="15"/>
-      <c r="AH106" s="15"/>
-      <c r="AI106" s="15"/>
-      <c r="AJ106" s="15"/>
-      <c r="AK106" s="15"/>
-      <c r="AL106" s="15"/>
-      <c r="AM106" s="18"/>
-      <c r="AN106" s="7"/>
+      <c r="A106" s="58"/>
+      <c r="B106" s="58"/>
+      <c r="C106" s="59"/>
+      <c r="D106" s="60"/>
+      <c r="E106" s="60"/>
+      <c r="F106" s="60"/>
+      <c r="G106" s="59"/>
+      <c r="H106" s="60"/>
+      <c r="I106" s="59"/>
+      <c r="J106" s="60"/>
+      <c r="K106" s="60"/>
+      <c r="L106" s="60"/>
+      <c r="M106" s="60"/>
+      <c r="N106" s="60"/>
+      <c r="O106" s="60"/>
+      <c r="P106" s="60"/>
+      <c r="Q106" s="60"/>
+      <c r="R106" s="60"/>
+      <c r="S106" s="60"/>
+      <c r="T106" s="60"/>
+      <c r="U106" s="60"/>
+      <c r="V106" s="60"/>
+      <c r="W106" s="60"/>
+      <c r="X106" s="60"/>
+      <c r="Y106" s="60"/>
+      <c r="Z106" s="60"/>
+      <c r="AA106" s="60"/>
+      <c r="AB106" s="60"/>
+      <c r="AC106" s="60"/>
+      <c r="AD106" s="60"/>
+      <c r="AE106" s="60"/>
+      <c r="AF106" s="60"/>
+      <c r="AG106" s="60"/>
+      <c r="AH106" s="60"/>
+      <c r="AI106" s="60"/>
+      <c r="AJ106" s="60"/>
+      <c r="AK106" s="60"/>
+      <c r="AL106" s="60"/>
+      <c r="AM106" s="58"/>
+      <c r="AN106" s="58"/>
     </row>
     <row r="107" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="6"/>
-      <c r="B107" s="12"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="15"/>
-      <c r="F107" s="15"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="14"/>
-      <c r="I107" s="16"/>
-      <c r="J107" s="15"/>
-      <c r="K107" s="17"/>
-      <c r="L107" s="14"/>
-      <c r="M107" s="15"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="14"/>
-      <c r="P107" s="15"/>
-      <c r="Q107" s="15"/>
-      <c r="R107" s="17"/>
-      <c r="S107" s="14"/>
-      <c r="T107" s="17"/>
-      <c r="U107" s="14"/>
-      <c r="V107" s="17"/>
-      <c r="W107" s="14"/>
-      <c r="X107" s="15"/>
-      <c r="Y107" s="15"/>
-      <c r="Z107" s="17"/>
-      <c r="AA107" s="14"/>
-      <c r="AB107" s="15"/>
-      <c r="AC107" s="17"/>
-      <c r="AD107" s="14"/>
-      <c r="AE107" s="15"/>
-      <c r="AF107" s="15"/>
-      <c r="AG107" s="15"/>
-      <c r="AH107" s="15"/>
-      <c r="AI107" s="15"/>
-      <c r="AJ107" s="15"/>
-      <c r="AK107" s="15"/>
-      <c r="AL107" s="15"/>
-      <c r="AM107" s="18"/>
-      <c r="AN107" s="7"/>
+      <c r="A107" s="58"/>
+      <c r="B107" s="58"/>
+      <c r="C107" s="59"/>
+      <c r="D107" s="60"/>
+      <c r="E107" s="60"/>
+      <c r="F107" s="60"/>
+      <c r="G107" s="59"/>
+      <c r="H107" s="60"/>
+      <c r="I107" s="59"/>
+      <c r="J107" s="60"/>
+      <c r="K107" s="60"/>
+      <c r="L107" s="60"/>
+      <c r="M107" s="60"/>
+      <c r="N107" s="60"/>
+      <c r="O107" s="60"/>
+      <c r="P107" s="60"/>
+      <c r="Q107" s="60"/>
+      <c r="R107" s="60"/>
+      <c r="S107" s="60"/>
+      <c r="T107" s="60"/>
+      <c r="U107" s="60"/>
+      <c r="V107" s="60"/>
+      <c r="W107" s="60"/>
+      <c r="X107" s="60"/>
+      <c r="Y107" s="60"/>
+      <c r="Z107" s="60"/>
+      <c r="AA107" s="60"/>
+      <c r="AB107" s="60"/>
+      <c r="AC107" s="60"/>
+      <c r="AD107" s="60"/>
+      <c r="AE107" s="60"/>
+      <c r="AF107" s="60"/>
+      <c r="AG107" s="60"/>
+      <c r="AH107" s="60"/>
+      <c r="AI107" s="60"/>
+      <c r="AJ107" s="60"/>
+      <c r="AK107" s="60"/>
+      <c r="AL107" s="60"/>
+      <c r="AM107" s="58"/>
+      <c r="AN107" s="58"/>
     </row>
     <row r="108" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="6"/>
-      <c r="B108" s="12"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="15"/>
-      <c r="F108" s="15"/>
-      <c r="G108" s="13"/>
-      <c r="H108" s="14"/>
-      <c r="I108" s="16"/>
-      <c r="J108" s="15"/>
-      <c r="K108" s="17"/>
-      <c r="L108" s="14"/>
-      <c r="M108" s="15"/>
-      <c r="N108" s="17"/>
-      <c r="O108" s="14"/>
-      <c r="P108" s="15"/>
-      <c r="Q108" s="15"/>
-      <c r="R108" s="17"/>
-      <c r="S108" s="14"/>
-      <c r="T108" s="17"/>
-      <c r="U108" s="14"/>
-      <c r="V108" s="17"/>
-      <c r="W108" s="14"/>
-      <c r="X108" s="15"/>
-      <c r="Y108" s="15"/>
-      <c r="Z108" s="17"/>
-      <c r="AA108" s="14"/>
-      <c r="AB108" s="15"/>
-      <c r="AC108" s="17"/>
-      <c r="AD108" s="14"/>
-      <c r="AE108" s="15"/>
-      <c r="AF108" s="15"/>
-      <c r="AG108" s="15"/>
-      <c r="AH108" s="15"/>
-      <c r="AI108" s="15"/>
-      <c r="AJ108" s="15"/>
-      <c r="AK108" s="15"/>
-      <c r="AL108" s="15"/>
-      <c r="AM108" s="18"/>
-      <c r="AN108" s="7"/>
+      <c r="A108" s="58"/>
+      <c r="B108" s="58"/>
+      <c r="C108" s="59"/>
+      <c r="D108" s="60"/>
+      <c r="E108" s="60"/>
+      <c r="F108" s="60"/>
+      <c r="G108" s="59"/>
+      <c r="H108" s="60"/>
+      <c r="I108" s="59"/>
+      <c r="J108" s="60"/>
+      <c r="K108" s="60"/>
+      <c r="L108" s="60"/>
+      <c r="M108" s="60"/>
+      <c r="N108" s="60"/>
+      <c r="O108" s="60"/>
+      <c r="P108" s="60"/>
+      <c r="Q108" s="60"/>
+      <c r="R108" s="60"/>
+      <c r="S108" s="60"/>
+      <c r="T108" s="60"/>
+      <c r="U108" s="60"/>
+      <c r="V108" s="60"/>
+      <c r="W108" s="60"/>
+      <c r="X108" s="60"/>
+      <c r="Y108" s="60"/>
+      <c r="Z108" s="60"/>
+      <c r="AA108" s="60"/>
+      <c r="AB108" s="60"/>
+      <c r="AC108" s="60"/>
+      <c r="AD108" s="60"/>
+      <c r="AE108" s="60"/>
+      <c r="AF108" s="60"/>
+      <c r="AG108" s="60"/>
+      <c r="AH108" s="60"/>
+      <c r="AI108" s="60"/>
+      <c r="AJ108" s="60"/>
+      <c r="AK108" s="60"/>
+      <c r="AL108" s="60"/>
+      <c r="AM108" s="58"/>
+      <c r="AN108" s="58"/>
     </row>
     <row r="109" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="9"/>
-      <c r="B109" s="10"/>
-      <c r="C109" s="10"/>
-      <c r="D109" s="10"/>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10"/>
-      <c r="G109" s="10"/>
-      <c r="H109" s="10"/>
-      <c r="I109" s="10"/>
-      <c r="J109" s="10"/>
-      <c r="K109" s="10"/>
-      <c r="L109" s="10"/>
-      <c r="M109" s="10"/>
-      <c r="N109" s="10"/>
-      <c r="O109" s="10"/>
-      <c r="P109" s="10"/>
-      <c r="Q109" s="10"/>
-      <c r="R109" s="10"/>
-      <c r="S109" s="10"/>
-      <c r="T109" s="10"/>
-      <c r="U109" s="10"/>
-      <c r="V109" s="10"/>
-      <c r="W109" s="10"/>
-      <c r="X109" s="10"/>
-      <c r="Y109" s="10"/>
-      <c r="Z109" s="10"/>
-      <c r="AA109" s="10"/>
-      <c r="AB109" s="10"/>
-      <c r="AC109" s="10"/>
-      <c r="AD109" s="10"/>
-      <c r="AE109" s="10"/>
-      <c r="AF109" s="10"/>
-      <c r="AG109" s="10"/>
-      <c r="AH109" s="10"/>
-      <c r="AI109" s="10"/>
-      <c r="AJ109" s="10"/>
-      <c r="AK109" s="10"/>
-      <c r="AL109" s="10"/>
-      <c r="AM109" s="10"/>
-      <c r="AN109" s="11"/>
+      <c r="A109" s="58"/>
+      <c r="B109" s="58"/>
+      <c r="C109" s="58"/>
+      <c r="D109" s="58"/>
+      <c r="E109" s="58"/>
+      <c r="F109" s="58"/>
+      <c r="G109" s="58"/>
+      <c r="H109" s="58"/>
+      <c r="I109" s="58"/>
+      <c r="J109" s="58"/>
+      <c r="K109" s="58"/>
+      <c r="L109" s="58"/>
+      <c r="M109" s="58"/>
+      <c r="N109" s="58"/>
+      <c r="O109" s="58"/>
+      <c r="P109" s="58"/>
+      <c r="Q109" s="58"/>
+      <c r="R109" s="58"/>
+      <c r="S109" s="58"/>
+      <c r="T109" s="58"/>
+      <c r="U109" s="58"/>
+      <c r="V109" s="58"/>
+      <c r="W109" s="58"/>
+      <c r="X109" s="58"/>
+      <c r="Y109" s="58"/>
+      <c r="Z109" s="58"/>
+      <c r="AA109" s="58"/>
+      <c r="AB109" s="58"/>
+      <c r="AC109" s="58"/>
+      <c r="AD109" s="58"/>
+      <c r="AE109" s="58"/>
+      <c r="AF109" s="58"/>
+      <c r="AG109" s="58"/>
+      <c r="AH109" s="58"/>
+      <c r="AI109" s="58"/>
+      <c r="AJ109" s="58"/>
+      <c r="AK109" s="58"/>
+      <c r="AL109" s="58"/>
+      <c r="AM109" s="58"/>
+      <c r="AN109" s="58"/>
+    </row>
+    <row r="110" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="59"/>
+      <c r="B110" s="59"/>
+      <c r="C110" s="59"/>
+      <c r="D110" s="59"/>
+      <c r="E110" s="59"/>
+      <c r="F110" s="59"/>
+      <c r="G110" s="59"/>
+      <c r="H110" s="59"/>
+      <c r="I110" s="59"/>
+      <c r="J110" s="59"/>
+      <c r="K110" s="59"/>
+      <c r="L110" s="59"/>
+      <c r="M110" s="59"/>
+      <c r="N110" s="59"/>
+      <c r="O110" s="59"/>
+      <c r="P110" s="59"/>
+      <c r="Q110" s="59"/>
+      <c r="R110" s="59"/>
+      <c r="S110" s="59"/>
+      <c r="T110" s="59"/>
+      <c r="U110" s="59"/>
+      <c r="V110" s="59"/>
+      <c r="W110" s="59"/>
+      <c r="X110" s="59"/>
+      <c r="Y110" s="59"/>
+      <c r="Z110" s="59"/>
+      <c r="AA110" s="59"/>
+      <c r="AB110" s="59"/>
+      <c r="AC110" s="59"/>
+      <c r="AD110" s="59"/>
+      <c r="AE110" s="59"/>
+      <c r="AF110" s="59"/>
+      <c r="AG110" s="59"/>
+      <c r="AH110" s="59"/>
+      <c r="AI110" s="59"/>
+      <c r="AJ110" s="59"/>
+      <c r="AK110" s="59"/>
+      <c r="AL110" s="59"/>
+      <c r="AM110" s="59"/>
+      <c r="AN110" s="59"/>
+    </row>
+    <row r="111" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="59"/>
+      <c r="B111" s="59"/>
+      <c r="C111" s="59"/>
+      <c r="D111" s="59"/>
+      <c r="E111" s="59"/>
+      <c r="F111" s="59"/>
+      <c r="G111" s="59"/>
+      <c r="H111" s="59"/>
+      <c r="I111" s="59"/>
+      <c r="J111" s="59"/>
+      <c r="K111" s="59"/>
+      <c r="L111" s="59"/>
+      <c r="M111" s="59"/>
+      <c r="N111" s="59"/>
+      <c r="O111" s="59"/>
+      <c r="P111" s="59"/>
+      <c r="Q111" s="59"/>
+      <c r="R111" s="59"/>
+      <c r="S111" s="59"/>
+      <c r="T111" s="59"/>
+      <c r="U111" s="59"/>
+      <c r="V111" s="59"/>
+      <c r="W111" s="59"/>
+      <c r="X111" s="59"/>
+      <c r="Y111" s="59"/>
+      <c r="Z111" s="59"/>
+      <c r="AA111" s="59"/>
+      <c r="AB111" s="59"/>
+      <c r="AC111" s="59"/>
+      <c r="AD111" s="59"/>
+      <c r="AE111" s="59"/>
+      <c r="AF111" s="59"/>
+      <c r="AG111" s="59"/>
+      <c r="AH111" s="59"/>
+      <c r="AI111" s="59"/>
+      <c r="AJ111" s="59"/>
+      <c r="AK111" s="59"/>
+      <c r="AL111" s="59"/>
+      <c r="AM111" s="59"/>
+      <c r="AN111" s="59"/>
+    </row>
+    <row r="112" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="59"/>
+      <c r="B112" s="59"/>
+      <c r="C112" s="59"/>
+      <c r="D112" s="59"/>
+      <c r="E112" s="59"/>
+      <c r="F112" s="59"/>
+      <c r="G112" s="59"/>
+      <c r="H112" s="59"/>
+      <c r="I112" s="59"/>
+      <c r="J112" s="59"/>
+      <c r="K112" s="59"/>
+      <c r="L112" s="59"/>
+      <c r="M112" s="59"/>
+      <c r="N112" s="59"/>
+      <c r="O112" s="59"/>
+      <c r="P112" s="59"/>
+      <c r="Q112" s="59"/>
+      <c r="R112" s="59"/>
+      <c r="S112" s="59"/>
+      <c r="T112" s="59"/>
+      <c r="U112" s="59"/>
+      <c r="V112" s="59"/>
+      <c r="W112" s="59"/>
+      <c r="X112" s="59"/>
+      <c r="Y112" s="59"/>
+      <c r="Z112" s="59"/>
+      <c r="AA112" s="59"/>
+      <c r="AB112" s="59"/>
+      <c r="AC112" s="59"/>
+      <c r="AD112" s="59"/>
+      <c r="AE112" s="59"/>
+      <c r="AF112" s="59"/>
+      <c r="AG112" s="59"/>
+      <c r="AH112" s="59"/>
+      <c r="AI112" s="59"/>
+      <c r="AJ112" s="59"/>
+      <c r="AK112" s="59"/>
+      <c r="AL112" s="59"/>
+      <c r="AM112" s="59"/>
+      <c r="AN112" s="59"/>
+    </row>
+    <row r="113" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="59"/>
+      <c r="B113" s="59"/>
+      <c r="C113" s="59"/>
+      <c r="D113" s="59"/>
+      <c r="E113" s="59"/>
+      <c r="F113" s="59"/>
+      <c r="G113" s="59"/>
+      <c r="H113" s="59"/>
+      <c r="I113" s="59"/>
+      <c r="J113" s="59"/>
+      <c r="K113" s="59"/>
+      <c r="L113" s="59"/>
+      <c r="M113" s="59"/>
+      <c r="N113" s="59"/>
+      <c r="O113" s="59"/>
+      <c r="P113" s="59"/>
+      <c r="Q113" s="59"/>
+      <c r="R113" s="59"/>
+      <c r="S113" s="59"/>
+      <c r="T113" s="59"/>
+      <c r="U113" s="59"/>
+      <c r="V113" s="59"/>
+      <c r="W113" s="59"/>
+      <c r="X113" s="59"/>
+      <c r="Y113" s="59"/>
+      <c r="Z113" s="59"/>
+      <c r="AA113" s="59"/>
+      <c r="AB113" s="59"/>
+      <c r="AC113" s="59"/>
+      <c r="AD113" s="59"/>
+      <c r="AE113" s="59"/>
+      <c r="AF113" s="59"/>
+      <c r="AG113" s="59"/>
+      <c r="AH113" s="59"/>
+      <c r="AI113" s="59"/>
+      <c r="AJ113" s="59"/>
+      <c r="AK113" s="59"/>
+      <c r="AL113" s="59"/>
+      <c r="AM113" s="59"/>
+      <c r="AN113" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="15">
